--- a/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
+++ b/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/rfq/Documentos Compartilhados/Variáveis EPICS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36336030-C085-4933-B4B5-4332B3D7FDC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B46B65-C7A3-4921-99B7-8A85871D8183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="5025" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="281">
   <si>
     <t>Variáveis do Sistema de Aquisição do Anel</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Prop</t>
   </si>
   <si>
-    <t>PV Name</t>
+    <t>Device Name</t>
   </si>
   <si>
     <t>Indicative</t>
@@ -510,12 +510,6 @@
   </si>
   <si>
     <t>Revl out</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Device Name</t>
   </si>
   <si>
     <t>PwrDCR2-Mon</t>
@@ -1922,7 +1916,7 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2182,7 +2176,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5714,8 +5708,8 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37:J40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5747,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>26</v>
@@ -5765,7 +5759,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="L1" s="77" t="s">
         <v>32</v>
@@ -5803,7 +5797,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" s="52" t="str">
         <f>IF(I2="-",E2&amp;"-"&amp;F2&amp;":"&amp;G2&amp;"-"&amp;H2&amp;":"&amp;J2,E2&amp;"-"&amp;F2&amp;":"&amp;G2&amp;"-"&amp;H2&amp;"-"&amp;I2&amp;":"&amp;J2)</f>
@@ -5842,7 +5836,7 @@
         <v>44</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>46</v>
@@ -5887,7 +5881,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>50</v>
@@ -5928,7 +5922,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J5" s="65" t="s">
         <v>46</v>
@@ -5973,7 +5967,7 @@
         <v>44</v>
       </c>
       <c r="I6" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J6" s="33" t="s">
         <v>50</v>
@@ -6014,7 +6008,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>46</v>
@@ -6059,7 +6053,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>50</v>
@@ -6100,7 +6094,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>46</v>
@@ -6145,7 +6139,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>50</v>
@@ -6186,7 +6180,7 @@
         <v>44</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>46</v>
@@ -6231,7 +6225,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>50</v>
@@ -6272,7 +6266,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>46</v>
@@ -6317,7 +6311,7 @@
         <v>44</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>50</v>
@@ -6358,7 +6352,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>46</v>
@@ -6403,7 +6397,7 @@
         <v>44</v>
       </c>
       <c r="I16" s="66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>50</v>
@@ -6444,7 +6438,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>46</v>
@@ -6489,7 +6483,7 @@
         <v>44</v>
       </c>
       <c r="I18" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>50</v>
@@ -6530,7 +6524,7 @@
         <v>44</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J19" s="34" t="s">
         <v>46</v>
@@ -6575,7 +6569,7 @@
         <v>44</v>
       </c>
       <c r="I20" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>50</v>
@@ -6616,7 +6610,7 @@
         <v>44</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J21" s="34" t="s">
         <v>46</v>
@@ -6661,7 +6655,7 @@
         <v>44</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>50</v>
@@ -6702,7 +6696,7 @@
         <v>44</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J23" s="34" t="s">
         <v>46</v>
@@ -6747,7 +6741,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>50</v>
@@ -6788,7 +6782,7 @@
         <v>44</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>46</v>
@@ -6833,7 +6827,7 @@
         <v>44</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>50</v>
@@ -6874,7 +6868,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>46</v>
@@ -6919,7 +6913,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>50</v>
@@ -6960,7 +6954,7 @@
         <v>44</v>
       </c>
       <c r="I29" s="65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>46</v>
@@ -7005,7 +6999,7 @@
         <v>44</v>
       </c>
       <c r="I30" s="66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>50</v>
@@ -7046,7 +7040,7 @@
         <v>44</v>
       </c>
       <c r="I31" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J31" s="34" t="s">
         <v>46</v>
@@ -7091,7 +7085,7 @@
         <v>44</v>
       </c>
       <c r="I32" s="66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>50</v>
@@ -7132,7 +7126,7 @@
         <v>44</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>46</v>
@@ -7177,7 +7171,7 @@
         <v>44</v>
       </c>
       <c r="I34" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>50</v>
@@ -7218,7 +7212,7 @@
         <v>44</v>
       </c>
       <c r="I35" s="65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J35" s="34" t="s">
         <v>46</v>
@@ -7260,7 +7254,7 @@
         <v>44</v>
       </c>
       <c r="I36" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>50</v>
@@ -7300,7 +7294,7 @@
         <v>23</v>
       </c>
       <c r="I37" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>123</v>
@@ -7342,7 +7336,7 @@
         <v>23</v>
       </c>
       <c r="I38" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J38" s="66" t="s">
         <v>126</v>
@@ -7384,7 +7378,7 @@
         <v>23</v>
       </c>
       <c r="I39" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>128</v>
@@ -7426,7 +7420,7 @@
         <v>23</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>129</v>
@@ -7468,7 +7462,7 @@
         <v>44</v>
       </c>
       <c r="I41" s="65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>46</v>
@@ -7510,7 +7504,7 @@
         <v>44</v>
       </c>
       <c r="I42" s="66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J42" s="33" t="s">
         <v>50</v>
@@ -7550,7 +7544,7 @@
         <v>44</v>
       </c>
       <c r="I43" s="65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>46</v>
@@ -7592,7 +7586,7 @@
         <v>44</v>
       </c>
       <c r="I44" s="66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J44" s="33" t="s">
         <v>50</v>
@@ -7632,7 +7626,7 @@
         <v>44</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J45" s="34" t="s">
         <v>46</v>
@@ -7674,7 +7668,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J46" s="33" t="s">
         <v>50</v>
@@ -7714,7 +7708,7 @@
         <v>44</v>
       </c>
       <c r="I47" s="65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>46</v>
@@ -7756,7 +7750,7 @@
         <v>44</v>
       </c>
       <c r="I48" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J48" s="33" t="s">
         <v>50</v>
@@ -7796,7 +7790,7 @@
         <v>44</v>
       </c>
       <c r="I49" s="65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>46</v>
@@ -7838,7 +7832,7 @@
         <v>44</v>
       </c>
       <c r="I50" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>50</v>
@@ -7878,7 +7872,7 @@
         <v>44</v>
       </c>
       <c r="I51" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J51" s="34" t="s">
         <v>46</v>
@@ -7920,7 +7914,7 @@
         <v>44</v>
       </c>
       <c r="I52" s="66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J52" s="33" t="s">
         <v>50</v>
@@ -7960,7 +7954,7 @@
         <v>44</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>46</v>
@@ -8002,7 +7996,7 @@
         <v>44</v>
       </c>
       <c r="I54" s="66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J54" s="33" t="s">
         <v>50</v>
@@ -8042,7 +8036,7 @@
         <v>44</v>
       </c>
       <c r="I55" s="65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>46</v>
@@ -8084,7 +8078,7 @@
         <v>44</v>
       </c>
       <c r="I56" s="66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J56" s="33" t="s">
         <v>50</v>
@@ -8124,7 +8118,7 @@
         <v>44</v>
       </c>
       <c r="I57" s="65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J57" s="34" t="s">
         <v>46</v>
@@ -8166,7 +8160,7 @@
         <v>44</v>
       </c>
       <c r="I58" s="66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J58" s="33" t="s">
         <v>50</v>
@@ -8206,7 +8200,7 @@
         <v>44</v>
       </c>
       <c r="I59" s="65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J59" s="34" t="s">
         <v>46</v>
@@ -8248,7 +8242,7 @@
         <v>44</v>
       </c>
       <c r="I60" s="66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>50</v>
@@ -8288,7 +8282,7 @@
         <v>44</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J61" s="34" t="s">
         <v>46</v>
@@ -8330,7 +8324,7 @@
         <v>44</v>
       </c>
       <c r="I62" s="66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>50</v>
@@ -8370,7 +8364,7 @@
         <v>44</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J63" s="34" t="s">
         <v>46</v>
@@ -8412,7 +8406,7 @@
         <v>44</v>
       </c>
       <c r="I64" s="66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>50</v>
@@ -8452,7 +8446,7 @@
         <v>44</v>
       </c>
       <c r="I65" s="65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J65" s="34" t="s">
         <v>46</v>
@@ -8494,7 +8488,7 @@
         <v>44</v>
       </c>
       <c r="I66" s="66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>50</v>
@@ -8534,7 +8528,7 @@
         <v>44</v>
       </c>
       <c r="I67" s="65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>46</v>
@@ -8576,7 +8570,7 @@
         <v>44</v>
       </c>
       <c r="I68" s="66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>50</v>
@@ -8616,7 +8610,7 @@
         <v>44</v>
       </c>
       <c r="I69" s="65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J69" s="34" t="s">
         <v>46</v>
@@ -8658,7 +8652,7 @@
         <v>44</v>
       </c>
       <c r="I70" s="66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J70" s="33" t="s">
         <v>50</v>
@@ -8698,7 +8692,7 @@
         <v>44</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J71" s="34" t="s">
         <v>46</v>
@@ -8740,7 +8734,7 @@
         <v>44</v>
       </c>
       <c r="I72" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J72" s="33" t="s">
         <v>50</v>
@@ -8780,7 +8774,7 @@
         <v>44</v>
       </c>
       <c r="I73" s="65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J73" s="34" t="s">
         <v>46</v>
@@ -8822,7 +8816,7 @@
         <v>44</v>
       </c>
       <c r="I74" s="66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J74" s="33" t="s">
         <v>50</v>
@@ -8862,7 +8856,7 @@
         <v>23</v>
       </c>
       <c r="I75" s="65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J75" s="34" t="s">
         <v>123</v>
@@ -8904,7 +8898,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J76" s="66" t="s">
         <v>126</v>
@@ -8946,7 +8940,7 @@
         <v>23</v>
       </c>
       <c r="I77" s="65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J77" s="34" t="s">
         <v>128</v>
@@ -8988,7 +8982,7 @@
         <v>23</v>
       </c>
       <c r="I78" s="67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J78" s="35" t="s">
         <v>129</v>
@@ -9033,7 +9027,7 @@
         <v>40</v>
       </c>
       <c r="J79" s="65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K79" s="51" t="str">
         <f t="shared" si="1"/>
@@ -9075,7 +9069,7 @@
         <v>40</v>
       </c>
       <c r="J80" s="66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K80" s="52" t="str">
         <f t="shared" si="1"/>
@@ -9117,7 +9111,7 @@
         <v>40</v>
       </c>
       <c r="J81" s="65" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K81" s="51" t="str">
         <f t="shared" si="1"/>
@@ -9159,7 +9153,7 @@
         <v>40</v>
       </c>
       <c r="J82" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K82" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9240,8 +9234,8 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9273,7 +9267,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>26</v>
@@ -9291,7 +9285,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="L1" s="77" t="s">
         <v>32</v>
@@ -9329,7 +9323,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K2" s="52" t="str">
         <f>IF(I2="-",E2&amp;"-"&amp;F2&amp;":"&amp;G2&amp;"-"&amp;H2&amp;":"&amp;J2,E2&amp;"-"&amp;F2&amp;":"&amp;G2&amp;"-"&amp;H2&amp;"-"&amp;I2&amp;":"&amp;J2)</f>
@@ -9368,7 +9362,7 @@
         <v>44</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>46</v>
@@ -9413,7 +9407,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>50</v>
@@ -9454,7 +9448,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J5" s="65" t="s">
         <v>46</v>
@@ -9499,7 +9493,7 @@
         <v>44</v>
       </c>
       <c r="I6" s="66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J6" s="33" t="s">
         <v>50</v>
@@ -9540,7 +9534,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>46</v>
@@ -9585,7 +9579,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>50</v>
@@ -9626,7 +9620,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>46</v>
@@ -9671,7 +9665,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>50</v>
@@ -9712,7 +9706,7 @@
         <v>44</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>46</v>
@@ -9757,7 +9751,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>50</v>
@@ -9798,7 +9792,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>46</v>
@@ -9843,7 +9837,7 @@
         <v>44</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>50</v>
@@ -9884,7 +9878,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>46</v>
@@ -9929,7 +9923,7 @@
         <v>44</v>
       </c>
       <c r="I16" s="66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>50</v>
@@ -9970,7 +9964,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>46</v>
@@ -10015,7 +10009,7 @@
         <v>44</v>
       </c>
       <c r="I18" s="66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>50</v>
@@ -10056,7 +10050,7 @@
         <v>44</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J19" s="34" t="s">
         <v>46</v>
@@ -10101,7 +10095,7 @@
         <v>44</v>
       </c>
       <c r="I20" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>50</v>
@@ -10142,7 +10136,7 @@
         <v>44</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J21" s="34" t="s">
         <v>46</v>
@@ -10187,7 +10181,7 @@
         <v>44</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>50</v>
@@ -10228,7 +10222,7 @@
         <v>44</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J23" s="34" t="s">
         <v>46</v>
@@ -10273,7 +10267,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>50</v>
@@ -10314,7 +10308,7 @@
         <v>44</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>46</v>
@@ -10359,7 +10353,7 @@
         <v>44</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>50</v>
@@ -10400,7 +10394,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>46</v>
@@ -10445,7 +10439,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>50</v>
@@ -10486,7 +10480,7 @@
         <v>44</v>
       </c>
       <c r="I29" s="65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>46</v>
@@ -10531,7 +10525,7 @@
         <v>44</v>
       </c>
       <c r="I30" s="66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>50</v>
@@ -10572,7 +10566,7 @@
         <v>44</v>
       </c>
       <c r="I31" s="65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J31" s="34" t="s">
         <v>46</v>
@@ -10617,7 +10611,7 @@
         <v>44</v>
       </c>
       <c r="I32" s="66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>50</v>
@@ -10658,7 +10652,7 @@
         <v>44</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>46</v>
@@ -10703,7 +10697,7 @@
         <v>44</v>
       </c>
       <c r="I34" s="66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>50</v>
@@ -10744,7 +10738,7 @@
         <v>44</v>
       </c>
       <c r="I35" s="65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J35" s="34" t="s">
         <v>46</v>
@@ -10786,7 +10780,7 @@
         <v>44</v>
       </c>
       <c r="I36" s="66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>50</v>
@@ -10826,7 +10820,7 @@
         <v>23</v>
       </c>
       <c r="I37" s="65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>123</v>
@@ -10868,7 +10862,7 @@
         <v>23</v>
       </c>
       <c r="I38" s="66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J38" s="66" t="s">
         <v>126</v>
@@ -10910,7 +10904,7 @@
         <v>23</v>
       </c>
       <c r="I39" s="65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>128</v>
@@ -10952,7 +10946,7 @@
         <v>23</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>129</v>
@@ -10994,7 +10988,7 @@
         <v>44</v>
       </c>
       <c r="I41" s="65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>46</v>
@@ -11036,7 +11030,7 @@
         <v>44</v>
       </c>
       <c r="I42" s="66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J42" s="33" t="s">
         <v>50</v>
@@ -11076,7 +11070,7 @@
         <v>44</v>
       </c>
       <c r="I43" s="65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>46</v>
@@ -11118,7 +11112,7 @@
         <v>44</v>
       </c>
       <c r="I44" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J44" s="33" t="s">
         <v>50</v>
@@ -11158,7 +11152,7 @@
         <v>44</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J45" s="34" t="s">
         <v>46</v>
@@ -11200,7 +11194,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J46" s="33" t="s">
         <v>50</v>
@@ -11240,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="I47" s="65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>46</v>
@@ -11282,7 +11276,7 @@
         <v>44</v>
       </c>
       <c r="I48" s="66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J48" s="33" t="s">
         <v>50</v>
@@ -11322,7 +11316,7 @@
         <v>44</v>
       </c>
       <c r="I49" s="65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>46</v>
@@ -11364,7 +11358,7 @@
         <v>44</v>
       </c>
       <c r="I50" s="66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>50</v>
@@ -11404,7 +11398,7 @@
         <v>44</v>
       </c>
       <c r="I51" s="65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J51" s="34" t="s">
         <v>46</v>
@@ -11446,7 +11440,7 @@
         <v>44</v>
       </c>
       <c r="I52" s="66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J52" s="33" t="s">
         <v>50</v>
@@ -11486,7 +11480,7 @@
         <v>44</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>46</v>
@@ -11528,7 +11522,7 @@
         <v>44</v>
       </c>
       <c r="I54" s="66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J54" s="33" t="s">
         <v>50</v>
@@ -11568,7 +11562,7 @@
         <v>44</v>
       </c>
       <c r="I55" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>46</v>
@@ -11610,7 +11604,7 @@
         <v>44</v>
       </c>
       <c r="I56" s="66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J56" s="33" t="s">
         <v>50</v>
@@ -11650,7 +11644,7 @@
         <v>44</v>
       </c>
       <c r="I57" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J57" s="34" t="s">
         <v>46</v>
@@ -11692,7 +11686,7 @@
         <v>44</v>
       </c>
       <c r="I58" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J58" s="33" t="s">
         <v>50</v>
@@ -11732,7 +11726,7 @@
         <v>44</v>
       </c>
       <c r="I59" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J59" s="34" t="s">
         <v>46</v>
@@ -11774,7 +11768,7 @@
         <v>44</v>
       </c>
       <c r="I60" s="66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>50</v>
@@ -11814,7 +11808,7 @@
         <v>44</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J61" s="34" t="s">
         <v>46</v>
@@ -11856,7 +11850,7 @@
         <v>44</v>
       </c>
       <c r="I62" s="66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>50</v>
@@ -11896,7 +11890,7 @@
         <v>44</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J63" s="34" t="s">
         <v>46</v>
@@ -11938,7 +11932,7 @@
         <v>44</v>
       </c>
       <c r="I64" s="66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>50</v>
@@ -11978,7 +11972,7 @@
         <v>44</v>
       </c>
       <c r="I65" s="65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J65" s="34" t="s">
         <v>46</v>
@@ -12020,7 +12014,7 @@
         <v>44</v>
       </c>
       <c r="I66" s="66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>50</v>
@@ -12060,7 +12054,7 @@
         <v>44</v>
       </c>
       <c r="I67" s="65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>46</v>
@@ -12102,7 +12096,7 @@
         <v>44</v>
       </c>
       <c r="I68" s="66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>50</v>
@@ -12142,7 +12136,7 @@
         <v>44</v>
       </c>
       <c r="I69" s="65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J69" s="34" t="s">
         <v>46</v>
@@ -12184,7 +12178,7 @@
         <v>44</v>
       </c>
       <c r="I70" s="66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J70" s="33" t="s">
         <v>50</v>
@@ -12224,7 +12218,7 @@
         <v>44</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J71" s="34" t="s">
         <v>46</v>
@@ -12266,7 +12260,7 @@
         <v>44</v>
       </c>
       <c r="I72" s="66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J72" s="33" t="s">
         <v>50</v>
@@ -12306,7 +12300,7 @@
         <v>44</v>
       </c>
       <c r="I73" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J73" s="34" t="s">
         <v>46</v>
@@ -12348,7 +12342,7 @@
         <v>44</v>
       </c>
       <c r="I74" s="66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J74" s="33" t="s">
         <v>50</v>
@@ -12388,7 +12382,7 @@
         <v>23</v>
       </c>
       <c r="I75" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J75" s="34" t="s">
         <v>123</v>
@@ -12430,7 +12424,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J76" s="66" t="s">
         <v>126</v>
@@ -12472,7 +12466,7 @@
         <v>23</v>
       </c>
       <c r="I77" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J77" s="34" t="s">
         <v>128</v>
@@ -12514,7 +12508,7 @@
         <v>23</v>
       </c>
       <c r="I78" s="67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J78" s="35" t="s">
         <v>129</v>
@@ -12559,7 +12553,7 @@
         <v>40</v>
       </c>
       <c r="J79" s="65" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K79" s="51" t="str">
         <f t="shared" si="1"/>
@@ -12601,7 +12595,7 @@
         <v>40</v>
       </c>
       <c r="J80" s="66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K80" s="52" t="str">
         <f t="shared" si="1"/>
@@ -12643,7 +12637,7 @@
         <v>40</v>
       </c>
       <c r="J81" s="65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K81" s="51" t="str">
         <f t="shared" si="1"/>
@@ -12685,7 +12679,7 @@
         <v>40</v>
       </c>
       <c r="J82" s="74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K82" s="52" t="str">
         <f t="shared" si="1"/>
@@ -12766,8 +12760,8 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12799,7 +12793,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>26</v>
@@ -12817,7 +12811,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="L1" s="77" t="s">
         <v>32</v>
@@ -12855,7 +12849,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K2" s="52" t="str">
         <f>IF(I2="-",E2&amp;"-"&amp;F2&amp;":"&amp;G2&amp;"-"&amp;H2&amp;":"&amp;J2,E2&amp;"-"&amp;F2&amp;":"&amp;G2&amp;"-"&amp;H2&amp;"-"&amp;I2&amp;":"&amp;J2)</f>
@@ -12894,7 +12888,7 @@
         <v>44</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>46</v>
@@ -12939,7 +12933,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>50</v>
@@ -12980,7 +12974,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J5" s="65" t="s">
         <v>46</v>
@@ -13025,7 +13019,7 @@
         <v>44</v>
       </c>
       <c r="I6" s="66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J6" s="33" t="s">
         <v>50</v>
@@ -13066,7 +13060,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>46</v>
@@ -13111,7 +13105,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>50</v>
@@ -13152,7 +13146,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>46</v>
@@ -13197,7 +13191,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>50</v>
@@ -13238,7 +13232,7 @@
         <v>44</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>46</v>
@@ -13283,7 +13277,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>50</v>
@@ -13324,7 +13318,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>46</v>
@@ -13369,7 +13363,7 @@
         <v>44</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>50</v>
@@ -13410,7 +13404,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>46</v>
@@ -13455,7 +13449,7 @@
         <v>44</v>
       </c>
       <c r="I16" s="66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>50</v>
@@ -13496,7 +13490,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>46</v>
@@ -13541,7 +13535,7 @@
         <v>44</v>
       </c>
       <c r="I18" s="66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>50</v>
@@ -13582,7 +13576,7 @@
         <v>44</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J19" s="34" t="s">
         <v>46</v>
@@ -13627,7 +13621,7 @@
         <v>44</v>
       </c>
       <c r="I20" s="66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>50</v>
@@ -13668,7 +13662,7 @@
         <v>44</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J21" s="34" t="s">
         <v>46</v>
@@ -13713,7 +13707,7 @@
         <v>44</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>50</v>
@@ -13754,7 +13748,7 @@
         <v>44</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J23" s="34" t="s">
         <v>46</v>
@@ -13799,7 +13793,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>50</v>
@@ -13840,7 +13834,7 @@
         <v>44</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>46</v>
@@ -13885,7 +13879,7 @@
         <v>44</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>50</v>
@@ -13926,7 +13920,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>46</v>
@@ -13971,7 +13965,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>50</v>
@@ -14012,7 +14006,7 @@
         <v>44</v>
       </c>
       <c r="I29" s="65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>46</v>
@@ -14057,7 +14051,7 @@
         <v>44</v>
       </c>
       <c r="I30" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>50</v>
@@ -14098,7 +14092,7 @@
         <v>44</v>
       </c>
       <c r="I31" s="65" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J31" s="34" t="s">
         <v>46</v>
@@ -14143,7 +14137,7 @@
         <v>44</v>
       </c>
       <c r="I32" s="66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>50</v>
@@ -14184,7 +14178,7 @@
         <v>44</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>46</v>
@@ -14229,7 +14223,7 @@
         <v>44</v>
       </c>
       <c r="I34" s="66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>50</v>
@@ -14270,7 +14264,7 @@
         <v>44</v>
       </c>
       <c r="I35" s="65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J35" s="34" t="s">
         <v>46</v>
@@ -14312,7 +14306,7 @@
         <v>44</v>
       </c>
       <c r="I36" s="66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>50</v>
@@ -14352,7 +14346,7 @@
         <v>23</v>
       </c>
       <c r="I37" s="65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>123</v>
@@ -14394,7 +14388,7 @@
         <v>23</v>
       </c>
       <c r="I38" s="66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J38" s="66" t="s">
         <v>126</v>
@@ -14436,7 +14430,7 @@
         <v>23</v>
       </c>
       <c r="I39" s="65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>128</v>
@@ -14478,7 +14472,7 @@
         <v>23</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>129</v>
@@ -14520,7 +14514,7 @@
         <v>44</v>
       </c>
       <c r="I41" s="65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>46</v>
@@ -14562,7 +14556,7 @@
         <v>44</v>
       </c>
       <c r="I42" s="66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J42" s="33" t="s">
         <v>50</v>
@@ -14602,7 +14596,7 @@
         <v>44</v>
       </c>
       <c r="I43" s="65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>46</v>
@@ -14644,7 +14638,7 @@
         <v>44</v>
       </c>
       <c r="I44" s="66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J44" s="33" t="s">
         <v>50</v>
@@ -14684,7 +14678,7 @@
         <v>44</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J45" s="34" t="s">
         <v>46</v>
@@ -14726,7 +14720,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J46" s="33" t="s">
         <v>50</v>
@@ -14766,7 +14760,7 @@
         <v>44</v>
       </c>
       <c r="I47" s="65" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>46</v>
@@ -14808,7 +14802,7 @@
         <v>44</v>
       </c>
       <c r="I48" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J48" s="33" t="s">
         <v>50</v>
@@ -14848,7 +14842,7 @@
         <v>44</v>
       </c>
       <c r="I49" s="65" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>46</v>
@@ -14890,7 +14884,7 @@
         <v>44</v>
       </c>
       <c r="I50" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>50</v>
@@ -14930,7 +14924,7 @@
         <v>44</v>
       </c>
       <c r="I51" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J51" s="34" t="s">
         <v>46</v>
@@ -14972,7 +14966,7 @@
         <v>44</v>
       </c>
       <c r="I52" s="66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J52" s="33" t="s">
         <v>50</v>
@@ -15012,7 +15006,7 @@
         <v>44</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>46</v>
@@ -15054,7 +15048,7 @@
         <v>44</v>
       </c>
       <c r="I54" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J54" s="33" t="s">
         <v>50</v>
@@ -15094,7 +15088,7 @@
         <v>44</v>
       </c>
       <c r="I55" s="65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>46</v>
@@ -15136,7 +15130,7 @@
         <v>44</v>
       </c>
       <c r="I56" s="66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J56" s="33" t="s">
         <v>50</v>
@@ -15176,7 +15170,7 @@
         <v>44</v>
       </c>
       <c r="I57" s="65" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J57" s="34" t="s">
         <v>46</v>
@@ -15218,7 +15212,7 @@
         <v>44</v>
       </c>
       <c r="I58" s="66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J58" s="33" t="s">
         <v>50</v>
@@ -15258,7 +15252,7 @@
         <v>44</v>
       </c>
       <c r="I59" s="65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J59" s="34" t="s">
         <v>46</v>
@@ -15300,7 +15294,7 @@
         <v>44</v>
       </c>
       <c r="I60" s="66" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>50</v>
@@ -15340,7 +15334,7 @@
         <v>44</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J61" s="34" t="s">
         <v>46</v>
@@ -15382,7 +15376,7 @@
         <v>44</v>
       </c>
       <c r="I62" s="66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>50</v>
@@ -15422,7 +15416,7 @@
         <v>44</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J63" s="34" t="s">
         <v>46</v>
@@ -15464,7 +15458,7 @@
         <v>44</v>
       </c>
       <c r="I64" s="66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>50</v>
@@ -15504,7 +15498,7 @@
         <v>44</v>
       </c>
       <c r="I65" s="65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J65" s="34" t="s">
         <v>46</v>
@@ -15546,7 +15540,7 @@
         <v>44</v>
       </c>
       <c r="I66" s="66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>50</v>
@@ -15586,7 +15580,7 @@
         <v>44</v>
       </c>
       <c r="I67" s="65" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>46</v>
@@ -15628,7 +15622,7 @@
         <v>44</v>
       </c>
       <c r="I68" s="66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>50</v>
@@ -15668,7 +15662,7 @@
         <v>44</v>
       </c>
       <c r="I69" s="65" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J69" s="34" t="s">
         <v>46</v>
@@ -15710,7 +15704,7 @@
         <v>44</v>
       </c>
       <c r="I70" s="66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J70" s="33" t="s">
         <v>50</v>
@@ -15750,7 +15744,7 @@
         <v>44</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J71" s="34" t="s">
         <v>46</v>
@@ -15792,7 +15786,7 @@
         <v>44</v>
       </c>
       <c r="I72" s="66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J72" s="33" t="s">
         <v>50</v>
@@ -15832,7 +15826,7 @@
         <v>44</v>
       </c>
       <c r="I73" s="65" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J73" s="34" t="s">
         <v>46</v>
@@ -15874,7 +15868,7 @@
         <v>44</v>
       </c>
       <c r="I74" s="66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J74" s="33" t="s">
         <v>50</v>
@@ -15914,7 +15908,7 @@
         <v>23</v>
       </c>
       <c r="I75" s="65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J75" s="34" t="s">
         <v>123</v>
@@ -15956,7 +15950,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J76" s="66" t="s">
         <v>126</v>
@@ -15998,7 +15992,7 @@
         <v>23</v>
       </c>
       <c r="I77" s="65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J77" s="34" t="s">
         <v>128</v>
@@ -16040,7 +16034,7 @@
         <v>23</v>
       </c>
       <c r="I78" s="67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J78" s="35" t="s">
         <v>129</v>
@@ -16085,7 +16079,7 @@
         <v>40</v>
       </c>
       <c r="J79" s="65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K79" s="51" t="str">
         <f t="shared" si="1"/>
@@ -16127,7 +16121,7 @@
         <v>40</v>
       </c>
       <c r="J80" s="66" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K80" s="52" t="str">
         <f t="shared" si="1"/>
@@ -16169,7 +16163,7 @@
         <v>40</v>
       </c>
       <c r="J81" s="65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K81" s="51" t="str">
         <f t="shared" si="1"/>
@@ -16211,7 +16205,7 @@
         <v>40</v>
       </c>
       <c r="J82" s="74" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K82" s="79" t="str">
         <f t="shared" si="1"/>
@@ -16292,9 +16286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FB089F-4C19-45B5-B93B-0C6361FCC2FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
+++ b/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/rfq/Documentos Compartilhados/Variáveis EPICS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B46B65-C7A3-4921-99B7-8A85871D8183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C907C0A9-5429-404D-9A40-126A0F45B69C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="5025" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2175,8 +2175,8 @@
   <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5708,7 +5708,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="K2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -16304,8 +16304,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="201bda3aa4a9b97f59d9a8699a0cd082">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a917be0b22c70f3d7e65a5fa1ad22a9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e2216931ecfa3ed1671143eb7091a50c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c4ad10e40a35dea085704c72c01ed87" ns2:_="" ns3:_="">
     <xsd:import namespace="40443515-7982-453e-8cc3-61a478897d4d"/>
     <xsd:import namespace="32dc2326-b69f-4ff3-bc41-ce299fdac243"/>
     <xsd:element name="properties">
@@ -16505,7 +16505,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81724813-7BC0-4A68-A8D3-1566E0ABE34F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2B8F53-12EA-47C8-8882-56CC78EA469E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
+++ b/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/rfq/Documentos Compartilhados/Variáveis EPICS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C907C0A9-5429-404D-9A40-126A0F45B69C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{966331C1-0D36-4D86-8DB0-940EC6ABBBDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="5025" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1586,6 +1586,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1597,27 +1618,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2000,10 +2000,10 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="C8" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="84" t="s">
+      <c r="C8" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="87" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -2017,10 +2017,10 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="84">
-        <v>1</v>
-      </c>
-      <c r="D9" s="84">
+      <c r="C9" s="87">
+        <v>1</v>
+      </c>
+      <c r="D9" s="87">
         <v>1</v>
       </c>
       <c r="I9" s="17" t="s">
@@ -2031,58 +2031,58 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="C10" s="84">
+      <c r="C10" s="87">
         <v>2</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="C11" s="84">
+      <c r="C11" s="87">
         <v>3</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="87">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="84">
+      <c r="C12" s="87">
         <v>4</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="87">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="84">
+      <c r="C13" s="87">
         <v>5</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="87">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="84">
+      <c r="C14" s="87">
         <v>6</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="87">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="84">
+      <c r="C15" s="87">
         <v>7</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="87">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="84">
+      <c r="C16" s="87">
         <v>8</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="87">
         <v>8</v>
       </c>
     </row>
@@ -2090,74 +2090,74 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="84">
-        <v>1</v>
-      </c>
-      <c r="D17" s="84">
+      <c r="C17" s="87">
+        <v>1</v>
+      </c>
+      <c r="D17" s="87">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="84">
+      <c r="C18" s="87">
         <v>2</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="87">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="C19" s="84">
+      <c r="C19" s="87">
         <v>3</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="87">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="C20" s="84">
+      <c r="C20" s="87">
         <v>4</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="87">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="C21" s="84">
+      <c r="C21" s="87">
         <v>5</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="87">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="C22" s="84">
+      <c r="C22" s="87">
         <v>6</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="87">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="C23" s="84">
+      <c r="C23" s="87">
         <v>7</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="87">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="84">
+      <c r="C24" s="87">
         <v>8</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="87">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="87">
         <v>17</v>
       </c>
     </row>
@@ -2172,11 +2172,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2194,7 +2194,7 @@
     <col min="17" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:14">
       <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:14">
       <c r="A2" s="60">
         <v>1</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:14">
       <c r="A3" s="43">
         <v>1</v>
       </c>
@@ -2312,17 +2312,17 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H01AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="N3" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="39">
         <v>1</v>
       </c>
@@ -2357,13 +2357,13 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H01AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="M4" s="94"/>
+      <c r="N4" s="91"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="43">
         <v>1</v>
       </c>
@@ -2398,17 +2398,17 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="91">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:14">
       <c r="A6" s="39">
         <v>1</v>
       </c>
@@ -2443,14 +2443,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
-      <c r="R6" s="52"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="M6" s="92"/>
+      <c r="N6" s="91"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="43">
         <v>1</v>
       </c>
@@ -2485,18 +2484,17 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="91">
         <v>3</v>
       </c>
-      <c r="R7" s="51"/>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="39">
         <v>1</v>
       </c>
@@ -2531,13 +2529,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="94"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="M8" s="94"/>
+      <c r="N8" s="91"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -2572,17 +2570,17 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="91">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:14">
       <c r="A10" s="39">
         <v>1</v>
       </c>
@@ -2617,13 +2615,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="94"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="M10" s="92"/>
+      <c r="N10" s="91"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="43">
         <v>1</v>
       </c>
@@ -2658,17 +2656,17 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="91">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:14">
       <c r="A12" s="39">
         <v>1</v>
       </c>
@@ -2703,13 +2701,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="94"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="M12" s="94"/>
+      <c r="N12" s="91"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="43">
         <v>1</v>
       </c>
@@ -2744,17 +2742,17 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="94">
+      <c r="N13" s="91">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:14">
       <c r="A14" s="39">
         <v>1</v>
       </c>
@@ -2789,13 +2787,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="M14" s="92"/>
+      <c r="N14" s="91"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="43">
         <v>1</v>
       </c>
@@ -2830,17 +2828,17 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="87" t="s">
+      <c r="L15" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="91" t="s">
+      <c r="M15" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="94">
+      <c r="N15" s="91">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:14">
       <c r="A16" s="39">
         <v>1</v>
       </c>
@@ -2875,11 +2873,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="91"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -2916,13 +2914,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="93" t="s">
+      <c r="M17" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="94">
+      <c r="N17" s="91">
         <v>8</v>
       </c>
     </row>
@@ -2961,11 +2959,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="85" t="s">
+      <c r="L18" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="91"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -3002,13 +3000,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="M19" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="94">
+      <c r="N19" s="91">
         <v>9</v>
       </c>
     </row>
@@ -3047,11 +3045,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="91"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -3088,13 +3086,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="87" t="s">
+      <c r="L21" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="93" t="s">
+      <c r="M21" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="94">
+      <c r="N21" s="91">
         <v>10</v>
       </c>
     </row>
@@ -3133,11 +3131,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="85" t="s">
+      <c r="L22" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="93"/>
-      <c r="N22" s="94"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="91"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -3174,13 +3172,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="87" t="s">
+      <c r="L23" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="91" t="s">
+      <c r="M23" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="94">
+      <c r="N23" s="91">
         <v>11</v>
       </c>
     </row>
@@ -3219,11 +3217,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="91"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -3260,13 +3258,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="93" t="s">
+      <c r="M25" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="94">
+      <c r="N25" s="91">
         <v>12</v>
       </c>
     </row>
@@ -3305,11 +3303,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="85" t="s">
+      <c r="L26" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="94"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="91"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -3346,13 +3344,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="87" t="s">
+      <c r="L27" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="94">
+      <c r="N27" s="91">
         <v>13</v>
       </c>
     </row>
@@ -3391,11 +3389,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="85" t="s">
+      <c r="L28" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="92"/>
-      <c r="N28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="91"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -3432,13 +3430,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="87" t="s">
+      <c r="L29" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="93" t="s">
+      <c r="M29" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="94">
+      <c r="N29" s="91">
         <v>14</v>
       </c>
     </row>
@@ -3477,11 +3475,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="L30" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="93"/>
-      <c r="N30" s="94"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="91"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -3518,13 +3516,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="87" t="s">
+      <c r="L31" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="94">
+      <c r="N31" s="91">
         <v>15</v>
       </c>
     </row>
@@ -3563,11 +3561,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="85" t="s">
+      <c r="L32" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="92"/>
-      <c r="N32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="91"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -3604,13 +3602,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="87" t="s">
+      <c r="L33" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="93" t="s">
+      <c r="M33" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="94">
+      <c r="N33" s="91">
         <v>16</v>
       </c>
     </row>
@@ -3649,11 +3647,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="94"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="91"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -3690,10 +3688,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="87" t="s">
+      <c r="L35" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="92" t="s">
+      <c r="M35" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3732,10 +3730,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="85" t="s">
+      <c r="L36" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="94"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -3772,7 +3770,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H01:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="87" t="s">
+      <c r="L37" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -3814,7 +3812,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H01:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="85" t="s">
+      <c r="L38" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -3856,7 +3854,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H01:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="87" t="s">
+      <c r="L39" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -3940,10 +3938,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="87" t="s">
+      <c r="L41" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="91" t="s">
+      <c r="M41" s="93" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3982,10 +3980,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="85" t="s">
+      <c r="L42" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="92"/>
+      <c r="M42" s="94"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -4022,10 +4020,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="93" t="s">
+      <c r="M43" s="92" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4064,10 +4062,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="85" t="s">
+      <c r="L44" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="93"/>
+      <c r="M44" s="92"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -4104,10 +4102,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="87" t="s">
+      <c r="L45" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="91" t="s">
+      <c r="M45" s="93" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4146,10 +4144,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="85" t="s">
+      <c r="L46" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="92"/>
+      <c r="M46" s="94"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -4186,10 +4184,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="87" t="s">
+      <c r="L47" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="93" t="s">
+      <c r="M47" s="92" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4228,10 +4226,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="85" t="s">
+      <c r="L48" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="93"/>
+      <c r="M48" s="92"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -4268,10 +4266,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="87" t="s">
+      <c r="L49" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="91" t="s">
+      <c r="M49" s="93" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4310,10 +4308,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="85" t="s">
+      <c r="L50" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="92"/>
+      <c r="M50" s="94"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -4350,10 +4348,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="87" t="s">
+      <c r="L51" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="93" t="s">
+      <c r="M51" s="92" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4392,10 +4390,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="85" t="s">
+      <c r="L52" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="93"/>
+      <c r="M52" s="92"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -4432,10 +4430,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="87" t="s">
+      <c r="L53" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="91" t="s">
+      <c r="M53" s="93" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4474,10 +4472,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="85" t="s">
+      <c r="L54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="92"/>
+      <c r="M54" s="94"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -4514,10 +4512,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="87" t="s">
+      <c r="L55" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="93" t="s">
+      <c r="M55" s="92" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4556,10 +4554,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="85" t="s">
+      <c r="L56" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="93"/>
+      <c r="M56" s="92"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -4596,10 +4594,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="87" t="s">
+      <c r="L57" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="91" t="s">
+      <c r="M57" s="93" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4638,10 +4636,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="85" t="s">
+      <c r="L58" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="92"/>
+      <c r="M58" s="94"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -4678,10 +4676,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="87" t="s">
+      <c r="L59" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="93" t="s">
+      <c r="M59" s="92" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4720,10 +4718,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="85" t="s">
+      <c r="L60" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="93"/>
+      <c r="M60" s="92"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -4760,10 +4758,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="87" t="s">
+      <c r="L61" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="91" t="s">
+      <c r="M61" s="93" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4802,10 +4800,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="85" t="s">
+      <c r="L62" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="92"/>
+      <c r="M62" s="94"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -4842,10 +4840,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="87" t="s">
+      <c r="L63" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="93" t="s">
+      <c r="M63" s="92" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4884,10 +4882,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="85" t="s">
+      <c r="L64" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="93"/>
+      <c r="M64" s="92"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="43">
@@ -4924,10 +4922,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="87" t="s">
+      <c r="L65" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="91" t="s">
+      <c r="M65" s="93" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4966,10 +4964,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="85" t="s">
+      <c r="L66" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="92"/>
+      <c r="M66" s="94"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="43">
@@ -5006,10 +5004,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="87" t="s">
+      <c r="L67" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="93" t="s">
+      <c r="M67" s="92" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5048,10 +5046,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H02BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="85" t="s">
+      <c r="L68" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="93"/>
+      <c r="M68" s="92"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="43">
@@ -5088,10 +5086,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="87" t="s">
+      <c r="L69" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="91" t="s">
+      <c r="M69" s="93" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5130,10 +5128,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="85" t="s">
+      <c r="L70" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="92"/>
+      <c r="M70" s="94"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="43">
@@ -5170,10 +5168,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="87" t="s">
+      <c r="L71" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="93" t="s">
+      <c r="M71" s="92" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5212,10 +5210,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="85" t="s">
+      <c r="L72" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="93"/>
+      <c r="M72" s="92"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="43">
@@ -5252,10 +5250,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="87" t="s">
+      <c r="L73" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="92" t="s">
+      <c r="M73" s="94" t="s">
         <v>21</v>
       </c>
       <c r="N73" s="95" t="s">
@@ -5297,10 +5295,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="85" t="s">
+      <c r="L74" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="92"/>
+      <c r="M74" s="94"/>
       <c r="N74" s="95"/>
     </row>
     <row r="75" spans="1:14">
@@ -5338,7 +5336,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H02:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="86" t="s">
+      <c r="L75" s="84" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -5380,7 +5378,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H02:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="85" t="s">
+      <c r="L76" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -5422,7 +5420,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H02:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="87" t="s">
+      <c r="L77" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -5506,7 +5504,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut1-Mon</v>
       </c>
-      <c r="L79" s="87" t="s">
+      <c r="L79" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -5548,7 +5546,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut1-Mon</v>
       </c>
-      <c r="L80" s="85" t="s">
+      <c r="L80" s="86" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -5590,7 +5588,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn1-Mon</v>
       </c>
-      <c r="L81" s="87" t="s">
+      <c r="L81" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -5647,30 +5645,17 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="M55:M56"/>
     <mergeCell ref="M57:M58"/>
@@ -5687,17 +5672,30 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="M47:M48"/>
     <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5708,8 +5706,8 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="K2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5845,13 +5843,13 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H03AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="91">
         <v>1</v>
       </c>
     </row>
@@ -5890,11 +5888,11 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H03AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="91"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="43">
@@ -5931,13 +5929,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="91">
         <v>2</v>
       </c>
     </row>
@@ -5976,11 +5974,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="91"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43">
@@ -6017,13 +6015,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="91">
         <v>3</v>
       </c>
     </row>
@@ -6062,11 +6060,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="91"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="43">
@@ -6103,13 +6101,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="91">
         <v>4</v>
       </c>
     </row>
@@ -6148,11 +6146,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="94"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="91"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43">
@@ -6189,13 +6187,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="91">
         <v>5</v>
       </c>
     </row>
@@ -6234,11 +6232,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="91"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43">
@@ -6275,13 +6273,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="94">
+      <c r="N13" s="91">
         <v>6</v>
       </c>
     </row>
@@ -6320,11 +6318,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="91"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="43">
@@ -6361,13 +6359,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="87" t="s">
+      <c r="L15" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="91" t="s">
+      <c r="M15" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="94">
+      <c r="N15" s="91">
         <v>7</v>
       </c>
     </row>
@@ -6406,11 +6404,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="91"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -6447,13 +6445,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="93" t="s">
+      <c r="M17" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="94">
+      <c r="N17" s="91">
         <v>8</v>
       </c>
     </row>
@@ -6492,11 +6490,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="85" t="s">
+      <c r="L18" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="91"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -6533,13 +6531,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="M19" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="94">
+      <c r="N19" s="91">
         <v>9</v>
       </c>
     </row>
@@ -6578,11 +6576,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="91"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -6619,13 +6617,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="87" t="s">
+      <c r="L21" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="93" t="s">
+      <c r="M21" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="94">
+      <c r="N21" s="91">
         <v>10</v>
       </c>
     </row>
@@ -6664,11 +6662,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="85" t="s">
+      <c r="L22" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="93"/>
-      <c r="N22" s="94"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="91"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -6705,13 +6703,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="87" t="s">
+      <c r="L23" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="91" t="s">
+      <c r="M23" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="94">
+      <c r="N23" s="91">
         <v>11</v>
       </c>
     </row>
@@ -6750,11 +6748,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="91"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -6791,13 +6789,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="93" t="s">
+      <c r="M25" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="94">
+      <c r="N25" s="91">
         <v>12</v>
       </c>
     </row>
@@ -6836,11 +6834,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="85" t="s">
+      <c r="L26" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="94"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="91"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -6877,13 +6875,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="87" t="s">
+      <c r="L27" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="94">
+      <c r="N27" s="91">
         <v>13</v>
       </c>
     </row>
@@ -6922,11 +6920,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="85" t="s">
+      <c r="L28" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="92"/>
-      <c r="N28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="91"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -6963,13 +6961,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="87" t="s">
+      <c r="L29" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="93" t="s">
+      <c r="M29" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="94">
+      <c r="N29" s="91">
         <v>14</v>
       </c>
     </row>
@@ -7008,11 +7006,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="L30" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="93"/>
-      <c r="N30" s="94"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="91"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -7049,13 +7047,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="87" t="s">
+      <c r="L31" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="94">
+      <c r="N31" s="91">
         <v>15</v>
       </c>
     </row>
@@ -7094,11 +7092,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="85" t="s">
+      <c r="L32" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="92"/>
-      <c r="N32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="91"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -7135,13 +7133,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="87" t="s">
+      <c r="L33" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="93" t="s">
+      <c r="M33" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="94">
+      <c r="N33" s="91">
         <v>16</v>
       </c>
     </row>
@@ -7180,11 +7178,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="94"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="91"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -7221,10 +7219,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="87" t="s">
+      <c r="L35" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="92" t="s">
+      <c r="M35" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7263,10 +7261,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="85" t="s">
+      <c r="L36" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="94"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -7303,7 +7301,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H03:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="87" t="s">
+      <c r="L37" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -7345,7 +7343,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H03:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="85" t="s">
+      <c r="L38" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -7387,7 +7385,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H03:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="87" t="s">
+      <c r="L39" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -7471,10 +7469,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="87" t="s">
+      <c r="L41" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="91" t="s">
+      <c r="M41" s="93" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7513,10 +7511,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="85" t="s">
+      <c r="L42" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="92"/>
+      <c r="M42" s="94"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -7553,10 +7551,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="93" t="s">
+      <c r="M43" s="92" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7595,10 +7593,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="85" t="s">
+      <c r="L44" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="93"/>
+      <c r="M44" s="92"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -7635,10 +7633,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="87" t="s">
+      <c r="L45" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="91" t="s">
+      <c r="M45" s="93" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7677,10 +7675,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="85" t="s">
+      <c r="L46" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="92"/>
+      <c r="M46" s="94"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -7717,10 +7715,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="87" t="s">
+      <c r="L47" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="93" t="s">
+      <c r="M47" s="92" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7759,10 +7757,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="85" t="s">
+      <c r="L48" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="93"/>
+      <c r="M48" s="92"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -7799,10 +7797,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="87" t="s">
+      <c r="L49" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="91" t="s">
+      <c r="M49" s="93" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7841,10 +7839,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="85" t="s">
+      <c r="L50" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="92"/>
+      <c r="M50" s="94"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -7881,10 +7879,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="87" t="s">
+      <c r="L51" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="93" t="s">
+      <c r="M51" s="92" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7923,10 +7921,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="85" t="s">
+      <c r="L52" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="93"/>
+      <c r="M52" s="92"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -7963,10 +7961,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="87" t="s">
+      <c r="L53" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="91" t="s">
+      <c r="M53" s="93" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8005,10 +8003,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="85" t="s">
+      <c r="L54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="92"/>
+      <c r="M54" s="94"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -8045,10 +8043,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="87" t="s">
+      <c r="L55" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="93" t="s">
+      <c r="M55" s="92" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8087,10 +8085,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="85" t="s">
+      <c r="L56" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="93"/>
+      <c r="M56" s="92"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -8127,10 +8125,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="87" t="s">
+      <c r="L57" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="91" t="s">
+      <c r="M57" s="93" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8169,10 +8167,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="85" t="s">
+      <c r="L58" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="92"/>
+      <c r="M58" s="94"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -8209,10 +8207,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="87" t="s">
+      <c r="L59" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="93" t="s">
+      <c r="M59" s="92" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8251,10 +8249,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="85" t="s">
+      <c r="L60" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="93"/>
+      <c r="M60" s="92"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -8291,10 +8289,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="87" t="s">
+      <c r="L61" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="91" t="s">
+      <c r="M61" s="93" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8333,10 +8331,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="85" t="s">
+      <c r="L62" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="92"/>
+      <c r="M62" s="94"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -8373,10 +8371,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="87" t="s">
+      <c r="L63" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="93" t="s">
+      <c r="M63" s="92" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8415,10 +8413,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="85" t="s">
+      <c r="L64" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="93"/>
+      <c r="M64" s="92"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="43">
@@ -8455,10 +8453,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="87" t="s">
+      <c r="L65" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="91" t="s">
+      <c r="M65" s="93" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8497,10 +8495,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="85" t="s">
+      <c r="L66" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="92"/>
+      <c r="M66" s="94"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="43">
@@ -8537,10 +8535,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="87" t="s">
+      <c r="L67" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="93" t="s">
+      <c r="M67" s="92" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8579,10 +8577,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H04BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="85" t="s">
+      <c r="L68" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="93"/>
+      <c r="M68" s="92"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="43">
@@ -8619,10 +8617,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="87" t="s">
+      <c r="L69" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="91" t="s">
+      <c r="M69" s="93" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8661,10 +8659,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="85" t="s">
+      <c r="L70" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="92"/>
+      <c r="M70" s="94"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="43">
@@ -8701,10 +8699,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="87" t="s">
+      <c r="L71" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="93" t="s">
+      <c r="M71" s="92" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8743,10 +8741,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="85" t="s">
+      <c r="L72" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="93"/>
+      <c r="M72" s="92"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="43">
@@ -8783,10 +8781,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="87" t="s">
+      <c r="L73" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="92" t="s">
+      <c r="M73" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8825,10 +8823,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="85" t="s">
+      <c r="L74" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="92"/>
+      <c r="M74" s="94"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="43">
@@ -8865,7 +8863,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H04:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="87" t="s">
+      <c r="L75" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -8907,7 +8905,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H04:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="85" t="s">
+      <c r="L76" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -8949,7 +8947,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H04:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="87" t="s">
+      <c r="L77" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -9033,7 +9031,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut2-Mon</v>
       </c>
-      <c r="L79" s="87" t="s">
+      <c r="L79" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -9075,7 +9073,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut2-Mon</v>
       </c>
-      <c r="L80" s="85" t="s">
+      <c r="L80" s="86" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -9117,7 +9115,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn2-Mon</v>
       </c>
-      <c r="L81" s="87" t="s">
+      <c r="L81" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -9174,16 +9172,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
     <mergeCell ref="M67:M68"/>
     <mergeCell ref="M69:M70"/>
     <mergeCell ref="M71:M72"/>
@@ -9200,30 +9212,16 @@
     <mergeCell ref="M61:M62"/>
     <mergeCell ref="M63:M64"/>
     <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9234,8 +9232,8 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9371,13 +9369,13 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H05AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="91">
         <v>1</v>
       </c>
     </row>
@@ -9416,11 +9414,11 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H05AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="91"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="43">
@@ -9457,13 +9455,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="91">
         <v>2</v>
       </c>
     </row>
@@ -9502,11 +9500,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="91"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43">
@@ -9543,13 +9541,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="91">
         <v>3</v>
       </c>
     </row>
@@ -9588,11 +9586,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="91"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="43">
@@ -9629,13 +9627,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="91">
         <v>4</v>
       </c>
     </row>
@@ -9674,11 +9672,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="94"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="91"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43">
@@ -9715,13 +9713,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="91">
         <v>5</v>
       </c>
     </row>
@@ -9760,11 +9758,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="91"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43">
@@ -9801,13 +9799,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="94">
+      <c r="N13" s="91">
         <v>6</v>
       </c>
     </row>
@@ -9846,11 +9844,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="91"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="43">
@@ -9887,13 +9885,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="87" t="s">
+      <c r="L15" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="91" t="s">
+      <c r="M15" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="94">
+      <c r="N15" s="91">
         <v>7</v>
       </c>
     </row>
@@ -9932,11 +9930,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="91"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -9973,13 +9971,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="93" t="s">
+      <c r="M17" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="94">
+      <c r="N17" s="91">
         <v>8</v>
       </c>
     </row>
@@ -10018,11 +10016,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="85" t="s">
+      <c r="L18" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="91"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -10059,13 +10057,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="M19" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="94">
+      <c r="N19" s="91">
         <v>9</v>
       </c>
     </row>
@@ -10104,11 +10102,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="91"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -10145,13 +10143,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="87" t="s">
+      <c r="L21" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="93" t="s">
+      <c r="M21" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="94">
+      <c r="N21" s="91">
         <v>10</v>
       </c>
     </row>
@@ -10190,11 +10188,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="85" t="s">
+      <c r="L22" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="93"/>
-      <c r="N22" s="94"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="91"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -10231,13 +10229,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="87" t="s">
+      <c r="L23" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="91" t="s">
+      <c r="M23" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="94">
+      <c r="N23" s="91">
         <v>11</v>
       </c>
     </row>
@@ -10276,11 +10274,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="91"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -10317,13 +10315,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="93" t="s">
+      <c r="M25" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="94">
+      <c r="N25" s="91">
         <v>12</v>
       </c>
     </row>
@@ -10362,11 +10360,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="85" t="s">
+      <c r="L26" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="94"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="91"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -10403,13 +10401,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="87" t="s">
+      <c r="L27" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="94">
+      <c r="N27" s="91">
         <v>13</v>
       </c>
     </row>
@@ -10448,11 +10446,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="85" t="s">
+      <c r="L28" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="92"/>
-      <c r="N28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="91"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -10489,13 +10487,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="87" t="s">
+      <c r="L29" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="93" t="s">
+      <c r="M29" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="94">
+      <c r="N29" s="91">
         <v>14</v>
       </c>
     </row>
@@ -10534,11 +10532,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="L30" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="93"/>
-      <c r="N30" s="94"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="91"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -10575,13 +10573,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="87" t="s">
+      <c r="L31" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="94">
+      <c r="N31" s="91">
         <v>15</v>
       </c>
     </row>
@@ -10620,11 +10618,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="85" t="s">
+      <c r="L32" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="92"/>
-      <c r="N32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="91"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -10661,13 +10659,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="87" t="s">
+      <c r="L33" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="93" t="s">
+      <c r="M33" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="94">
+      <c r="N33" s="91">
         <v>16</v>
       </c>
     </row>
@@ -10706,11 +10704,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="94"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="91"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -10747,10 +10745,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="87" t="s">
+      <c r="L35" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="92" t="s">
+      <c r="M35" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10789,10 +10787,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="85" t="s">
+      <c r="L36" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="94"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -10829,7 +10827,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H05:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="87" t="s">
+      <c r="L37" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -10871,7 +10869,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H05:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="85" t="s">
+      <c r="L38" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -10913,7 +10911,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H05:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="87" t="s">
+      <c r="L39" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -10997,10 +10995,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="87" t="s">
+      <c r="L41" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="91" t="s">
+      <c r="M41" s="93" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11039,10 +11037,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="85" t="s">
+      <c r="L42" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="92"/>
+      <c r="M42" s="94"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -11079,10 +11077,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="93" t="s">
+      <c r="M43" s="92" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11121,10 +11119,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="85" t="s">
+      <c r="L44" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="93"/>
+      <c r="M44" s="92"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -11161,10 +11159,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="87" t="s">
+      <c r="L45" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="91" t="s">
+      <c r="M45" s="93" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11203,10 +11201,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="85" t="s">
+      <c r="L46" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="92"/>
+      <c r="M46" s="94"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -11243,10 +11241,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="87" t="s">
+      <c r="L47" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="93" t="s">
+      <c r="M47" s="92" t="s">
         <v>67</v>
       </c>
     </row>
@@ -11285,10 +11283,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="85" t="s">
+      <c r="L48" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="93"/>
+      <c r="M48" s="92"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -11325,10 +11323,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="87" t="s">
+      <c r="L49" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="91" t="s">
+      <c r="M49" s="93" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11367,10 +11365,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="85" t="s">
+      <c r="L50" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="92"/>
+      <c r="M50" s="94"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -11407,10 +11405,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="87" t="s">
+      <c r="L51" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="93" t="s">
+      <c r="M51" s="92" t="s">
         <v>77</v>
       </c>
     </row>
@@ -11449,10 +11447,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="85" t="s">
+      <c r="L52" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="93"/>
+      <c r="M52" s="92"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -11489,10 +11487,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="87" t="s">
+      <c r="L53" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="91" t="s">
+      <c r="M53" s="93" t="s">
         <v>81</v>
       </c>
     </row>
@@ -11531,10 +11529,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="85" t="s">
+      <c r="L54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="92"/>
+      <c r="M54" s="94"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -11571,10 +11569,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="87" t="s">
+      <c r="L55" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="93" t="s">
+      <c r="M55" s="92" t="s">
         <v>85</v>
       </c>
     </row>
@@ -11613,10 +11611,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="85" t="s">
+      <c r="L56" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="93"/>
+      <c r="M56" s="92"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -11653,10 +11651,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="87" t="s">
+      <c r="L57" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="91" t="s">
+      <c r="M57" s="93" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11695,10 +11693,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="85" t="s">
+      <c r="L58" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="92"/>
+      <c r="M58" s="94"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -11735,10 +11733,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="87" t="s">
+      <c r="L59" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="93" t="s">
+      <c r="M59" s="92" t="s">
         <v>93</v>
       </c>
     </row>
@@ -11777,10 +11775,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="85" t="s">
+      <c r="L60" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="93"/>
+      <c r="M60" s="92"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -11817,10 +11815,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="87" t="s">
+      <c r="L61" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="91" t="s">
+      <c r="M61" s="93" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11859,10 +11857,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="85" t="s">
+      <c r="L62" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="92"/>
+      <c r="M62" s="94"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -11899,10 +11897,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="87" t="s">
+      <c r="L63" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="93" t="s">
+      <c r="M63" s="92" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11941,10 +11939,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="85" t="s">
+      <c r="L64" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="93"/>
+      <c r="M64" s="92"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="43">
@@ -11981,10 +11979,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="87" t="s">
+      <c r="L65" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="91" t="s">
+      <c r="M65" s="93" t="s">
         <v>105</v>
       </c>
     </row>
@@ -12023,10 +12021,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="85" t="s">
+      <c r="L66" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="92"/>
+      <c r="M66" s="94"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="43">
@@ -12063,10 +12061,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="87" t="s">
+      <c r="L67" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="93" t="s">
+      <c r="M67" s="92" t="s">
         <v>109</v>
       </c>
     </row>
@@ -12105,10 +12103,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H06BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="85" t="s">
+      <c r="L68" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="93"/>
+      <c r="M68" s="92"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="43">
@@ -12145,10 +12143,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="87" t="s">
+      <c r="L69" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="91" t="s">
+      <c r="M69" s="93" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12187,10 +12185,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="85" t="s">
+      <c r="L70" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="92"/>
+      <c r="M70" s="94"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="43">
@@ -12227,10 +12225,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="87" t="s">
+      <c r="L71" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="93" t="s">
+      <c r="M71" s="92" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12269,10 +12267,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="85" t="s">
+      <c r="L72" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="93"/>
+      <c r="M72" s="92"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="43">
@@ -12309,10 +12307,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="87" t="s">
+      <c r="L73" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="92" t="s">
+      <c r="M73" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12351,10 +12349,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="85" t="s">
+      <c r="L74" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="92"/>
+      <c r="M74" s="94"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="43">
@@ -12391,7 +12389,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H06:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="87" t="s">
+      <c r="L75" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -12433,7 +12431,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H06:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="85" t="s">
+      <c r="L76" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -12475,7 +12473,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H06:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="87" t="s">
+      <c r="L77" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -12559,7 +12557,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut3-Mon</v>
       </c>
-      <c r="L79" s="87" t="s">
+      <c r="L79" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -12601,7 +12599,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut3-Mon</v>
       </c>
-      <c r="L80" s="85" t="s">
+      <c r="L80" s="86" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -12643,7 +12641,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn3-Mon</v>
       </c>
-      <c r="L81" s="87" t="s">
+      <c r="L81" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -12700,21 +12698,25 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="M67:M68"/>
     <mergeCell ref="M69:M70"/>
@@ -12731,25 +12733,21 @@
     <mergeCell ref="M47:M48"/>
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -12760,7 +12758,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -12897,13 +12895,13 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H07AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="91">
         <v>1</v>
       </c>
     </row>
@@ -12942,11 +12940,11 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H07AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="91"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="43">
@@ -12983,13 +12981,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="91">
         <v>2</v>
       </c>
     </row>
@@ -13028,11 +13026,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="91"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43">
@@ -13069,13 +13067,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="91">
         <v>3</v>
       </c>
     </row>
@@ -13114,11 +13112,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="91"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="43">
@@ -13155,13 +13153,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="91">
         <v>4</v>
       </c>
     </row>
@@ -13200,11 +13198,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="94"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="91"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43">
@@ -13241,13 +13239,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="91">
         <v>5</v>
       </c>
     </row>
@@ -13286,11 +13284,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="91"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43">
@@ -13327,13 +13325,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="94">
+      <c r="N13" s="91">
         <v>6</v>
       </c>
     </row>
@@ -13372,11 +13370,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="91"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="43">
@@ -13413,13 +13411,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="87" t="s">
+      <c r="L15" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="91" t="s">
+      <c r="M15" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="94">
+      <c r="N15" s="91">
         <v>7</v>
       </c>
     </row>
@@ -13458,11 +13456,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="91"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -13499,13 +13497,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="93" t="s">
+      <c r="M17" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="94">
+      <c r="N17" s="91">
         <v>8</v>
       </c>
     </row>
@@ -13544,11 +13542,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="85" t="s">
+      <c r="L18" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="91"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -13585,13 +13583,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="M19" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="94">
+      <c r="N19" s="91">
         <v>9</v>
       </c>
     </row>
@@ -13630,11 +13628,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="91"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -13671,13 +13669,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="87" t="s">
+      <c r="L21" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="93" t="s">
+      <c r="M21" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="94">
+      <c r="N21" s="91">
         <v>10</v>
       </c>
     </row>
@@ -13716,11 +13714,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="85" t="s">
+      <c r="L22" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="93"/>
-      <c r="N22" s="94"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="91"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -13757,13 +13755,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="87" t="s">
+      <c r="L23" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="91" t="s">
+      <c r="M23" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="94">
+      <c r="N23" s="91">
         <v>11</v>
       </c>
     </row>
@@ -13802,11 +13800,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="91"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -13843,13 +13841,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="93" t="s">
+      <c r="M25" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="94">
+      <c r="N25" s="91">
         <v>12</v>
       </c>
     </row>
@@ -13888,11 +13886,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="85" t="s">
+      <c r="L26" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="94"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="91"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -13929,13 +13927,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="87" t="s">
+      <c r="L27" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="94">
+      <c r="N27" s="91">
         <v>13</v>
       </c>
     </row>
@@ -13974,11 +13972,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="85" t="s">
+      <c r="L28" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="92"/>
-      <c r="N28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="91"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -14015,13 +14013,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="87" t="s">
+      <c r="L29" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="93" t="s">
+      <c r="M29" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="94">
+      <c r="N29" s="91">
         <v>14</v>
       </c>
     </row>
@@ -14060,11 +14058,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="L30" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="93"/>
-      <c r="N30" s="94"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="91"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -14101,13 +14099,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="87" t="s">
+      <c r="L31" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="94">
+      <c r="N31" s="91">
         <v>15</v>
       </c>
     </row>
@@ -14146,11 +14144,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="85" t="s">
+      <c r="L32" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="92"/>
-      <c r="N32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="91"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -14187,13 +14185,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="87" t="s">
+      <c r="L33" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="93" t="s">
+      <c r="M33" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="94">
+      <c r="N33" s="91">
         <v>16</v>
       </c>
     </row>
@@ -14232,11 +14230,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="94"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="91"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -14273,10 +14271,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="87" t="s">
+      <c r="L35" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="92" t="s">
+      <c r="M35" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14315,10 +14313,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="85" t="s">
+      <c r="L36" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="94"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -14355,7 +14353,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H07:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="87" t="s">
+      <c r="L37" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -14397,7 +14395,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H07:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="85" t="s">
+      <c r="L38" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -14439,7 +14437,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H07:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="87" t="s">
+      <c r="L39" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -14523,10 +14521,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="87" t="s">
+      <c r="L41" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="91" t="s">
+      <c r="M41" s="93" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14565,10 +14563,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="85" t="s">
+      <c r="L42" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="92"/>
+      <c r="M42" s="94"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -14605,10 +14603,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="93" t="s">
+      <c r="M43" s="92" t="s">
         <v>55</v>
       </c>
     </row>
@@ -14647,10 +14645,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="85" t="s">
+      <c r="L44" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="93"/>
+      <c r="M44" s="92"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -14687,10 +14685,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="87" t="s">
+      <c r="L45" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="91" t="s">
+      <c r="M45" s="93" t="s">
         <v>61</v>
       </c>
     </row>
@@ -14729,10 +14727,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="85" t="s">
+      <c r="L46" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="92"/>
+      <c r="M46" s="94"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -14769,10 +14767,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="87" t="s">
+      <c r="L47" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="93" t="s">
+      <c r="M47" s="92" t="s">
         <v>67</v>
       </c>
     </row>
@@ -14811,10 +14809,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="85" t="s">
+      <c r="L48" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="93"/>
+      <c r="M48" s="92"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -14851,10 +14849,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="87" t="s">
+      <c r="L49" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="91" t="s">
+      <c r="M49" s="93" t="s">
         <v>73</v>
       </c>
     </row>
@@ -14893,10 +14891,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="85" t="s">
+      <c r="L50" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="92"/>
+      <c r="M50" s="94"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -14933,10 +14931,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="87" t="s">
+      <c r="L51" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="93" t="s">
+      <c r="M51" s="92" t="s">
         <v>77</v>
       </c>
     </row>
@@ -14975,10 +14973,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="85" t="s">
+      <c r="L52" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="93"/>
+      <c r="M52" s="92"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -15015,10 +15013,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="87" t="s">
+      <c r="L53" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="91" t="s">
+      <c r="M53" s="93" t="s">
         <v>81</v>
       </c>
     </row>
@@ -15057,10 +15055,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="85" t="s">
+      <c r="L54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="92"/>
+      <c r="M54" s="94"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -15097,10 +15095,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="87" t="s">
+      <c r="L55" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="93" t="s">
+      <c r="M55" s="92" t="s">
         <v>85</v>
       </c>
     </row>
@@ -15139,10 +15137,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="85" t="s">
+      <c r="L56" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="93"/>
+      <c r="M56" s="92"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -15179,10 +15177,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="87" t="s">
+      <c r="L57" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="91" t="s">
+      <c r="M57" s="93" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15221,10 +15219,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="85" t="s">
+      <c r="L58" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="92"/>
+      <c r="M58" s="94"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -15261,10 +15259,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="87" t="s">
+      <c r="L59" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="93" t="s">
+      <c r="M59" s="92" t="s">
         <v>93</v>
       </c>
     </row>
@@ -15303,10 +15301,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="85" t="s">
+      <c r="L60" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="93"/>
+      <c r="M60" s="92"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -15343,10 +15341,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="87" t="s">
+      <c r="L61" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="91" t="s">
+      <c r="M61" s="93" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15385,10 +15383,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="85" t="s">
+      <c r="L62" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="92"/>
+      <c r="M62" s="94"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -15425,10 +15423,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="87" t="s">
+      <c r="L63" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="93" t="s">
+      <c r="M63" s="92" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15467,10 +15465,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="85" t="s">
+      <c r="L64" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="93"/>
+      <c r="M64" s="92"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="43">
@@ -15507,10 +15505,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="87" t="s">
+      <c r="L65" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="91" t="s">
+      <c r="M65" s="93" t="s">
         <v>105</v>
       </c>
     </row>
@@ -15549,10 +15547,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="85" t="s">
+      <c r="L66" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="92"/>
+      <c r="M66" s="94"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="43">
@@ -15589,10 +15587,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="87" t="s">
+      <c r="L67" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="93" t="s">
+      <c r="M67" s="92" t="s">
         <v>109</v>
       </c>
     </row>
@@ -15631,10 +15629,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H08BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="85" t="s">
+      <c r="L68" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="93"/>
+      <c r="M68" s="92"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="43">
@@ -15671,10 +15669,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="87" t="s">
+      <c r="L69" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="91" t="s">
+      <c r="M69" s="93" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15713,10 +15711,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="85" t="s">
+      <c r="L70" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="92"/>
+      <c r="M70" s="94"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="43">
@@ -15753,10 +15751,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="87" t="s">
+      <c r="L71" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="93" t="s">
+      <c r="M71" s="92" t="s">
         <v>117</v>
       </c>
     </row>
@@ -15795,10 +15793,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="85" t="s">
+      <c r="L72" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="93"/>
+      <c r="M72" s="92"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="43">
@@ -15835,10 +15833,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="87" t="s">
+      <c r="L73" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="92" t="s">
+      <c r="M73" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15877,10 +15875,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="85" t="s">
+      <c r="L74" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="92"/>
+      <c r="M74" s="94"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="43">
@@ -15917,7 +15915,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H08:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="87" t="s">
+      <c r="L75" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -15959,7 +15957,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H08:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="85" t="s">
+      <c r="L76" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -16001,7 +15999,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H08:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="87" t="s">
+      <c r="L77" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -16085,7 +16083,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut4-Mon</v>
       </c>
-      <c r="L79" s="87" t="s">
+      <c r="L79" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -16127,7 +16125,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut4-Mon</v>
       </c>
-      <c r="L80" s="85" t="s">
+      <c r="L80" s="86" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -16169,7 +16167,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn4-Mon</v>
       </c>
-      <c r="L81" s="87" t="s">
+      <c r="L81" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -16226,16 +16224,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
     <mergeCell ref="M67:M68"/>
     <mergeCell ref="M69:M70"/>
     <mergeCell ref="M71:M72"/>
@@ -16252,30 +16264,16 @@
     <mergeCell ref="M61:M62"/>
     <mergeCell ref="M63:M64"/>
     <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -16295,17 +16293,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e2216931ecfa3ed1671143eb7091a50c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c4ad10e40a35dea085704c72c01ed87" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a6ff473c24fc44163490d905b4ab4ee2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="243435ed956ade279fa1d023abedd985" ns2:_="" ns3:_="">
     <xsd:import namespace="40443515-7982-453e-8cc3-61a478897d4d"/>
     <xsd:import namespace="32dc2326-b69f-4ff3-bc41-ce299fdac243"/>
     <xsd:element name="properties">
@@ -16322,6 +16317,8 @@
                 <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16390,6 +16387,16 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -16495,19 +16502,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A831CC-A28E-4A0B-ABEF-49ABDC8742C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82287DDB-7D8B-4CED-97E8-DB1C325264F3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2B8F53-12EA-47C8-8882-56CC78EA469E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC0431FD-1A75-4365-B279-AF94D061FE13}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82287DDB-7D8B-4CED-97E8-DB1C325264F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A831CC-A28E-4A0B-ABEF-49ABDC8742C7}"/>
 </file>
--- a/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
+++ b/documentation/SSAStorageRing/Variáveis Aquisição Anel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/rfq/Documentos Compartilhados/Variáveis EPICS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_275d\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966331C1-0D36-4D86-8DB0-940EC6ABBBDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D9D61D-A997-4304-9E16-6D9EE387995C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="5025" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Rack4" sheetId="7" r:id="rId5"/>
     <sheet name="Devices" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -113,22 +116,22 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>Sec</t>
-  </si>
-  <si>
-    <t>Sub</t>
-  </si>
-  <si>
-    <t>Dis</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>Idx</t>
-  </si>
-  <si>
-    <t>Prop</t>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t>PROP</t>
   </si>
   <si>
     <t>Device Name</t>
@@ -485,30 +488,30 @@
     <t>H02</t>
   </si>
   <si>
+    <t>PwrFwdIn1-Mon</t>
+  </si>
+  <si>
+    <t>Potência Geral</t>
+  </si>
+  <si>
+    <t>Inc in</t>
+  </si>
+  <si>
+    <t>PwrRevIn1-Mon</t>
+  </si>
+  <si>
+    <t>Revl in</t>
+  </si>
+  <si>
     <t>PwrFwdOut1-Mon</t>
   </si>
   <si>
-    <t>Potência Geral</t>
-  </si>
-  <si>
-    <t>Inc in</t>
+    <t>Inc out</t>
   </si>
   <si>
     <t>PwrRevOut1-Mon</t>
   </si>
   <si>
-    <t>Revl in</t>
-  </si>
-  <si>
-    <t>PwrFwdIn1-Mon</t>
-  </si>
-  <si>
-    <t>Inc out</t>
-  </si>
-  <si>
-    <t>PwrRevIn1-Mon</t>
-  </si>
-  <si>
     <t>Revl out</t>
   </si>
   <si>
@@ -623,18 +626,18 @@
     <t>H04</t>
   </si>
   <si>
+    <t>PwrFwdIn2-Mon</t>
+  </si>
+  <si>
+    <t>PwrRevIn2-Mon</t>
+  </si>
+  <si>
     <t>PwrFwdOut2-Mon</t>
   </si>
   <si>
     <t>PwrRevOut2-Mon</t>
   </si>
   <si>
-    <t>PwrFwdIn2-Mon</t>
-  </si>
-  <si>
-    <t>PwrRevIn2-Mon</t>
-  </si>
-  <si>
     <t>PwrDCR3-Mon</t>
   </si>
   <si>
@@ -746,18 +749,18 @@
     <t>H06</t>
   </si>
   <si>
+    <t>PwrFwdIn3-Mon</t>
+  </si>
+  <si>
+    <t>PwrRevIn3-Mon</t>
+  </si>
+  <si>
     <t>PwrFwdOut3-Mon</t>
   </si>
   <si>
     <t>PwrRevOut3-Mon</t>
   </si>
   <si>
-    <t>PwrFwdIn3-Mon</t>
-  </si>
-  <si>
-    <t>PwrRevIn3-Mon</t>
-  </si>
-  <si>
     <t>PwrDCR4-Mon</t>
   </si>
   <si>
@@ -869,23 +872,23 @@
     <t>H08</t>
   </si>
   <si>
+    <t>PwrFwdIn4-Mon</t>
+  </si>
+  <si>
+    <t>PwrRevIn4-Mon</t>
+  </si>
+  <si>
     <t>PwrFwdOut4-Mon</t>
   </si>
   <si>
     <t>PwrRevOut4-Mon</t>
-  </si>
-  <si>
-    <t>PwrFwdIn4-Mon</t>
-  </si>
-  <si>
-    <t>PwrRevIn4-Mon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +912,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1347,7 +1358,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1586,27 +1597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1619,7 +1609,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2000,10 +2014,10 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="C8" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="87" t="s">
+      <c r="C8" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="84" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -2017,10 +2031,10 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="87">
-        <v>1</v>
-      </c>
-      <c r="D9" s="87">
+      <c r="C9" s="84">
+        <v>1</v>
+      </c>
+      <c r="D9" s="84">
         <v>1</v>
       </c>
       <c r="I9" s="17" t="s">
@@ -2031,58 +2045,58 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="C10" s="87">
+      <c r="C10" s="84">
         <v>2</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="84">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="C11" s="87">
+      <c r="C11" s="84">
         <v>3</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="84">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="87">
+      <c r="C12" s="84">
         <v>4</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="84">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="87">
+      <c r="C13" s="84">
         <v>5</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="84">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="87">
+      <c r="C14" s="84">
         <v>6</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="84">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="87">
+      <c r="C15" s="84">
         <v>7</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="84">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="87">
+      <c r="C16" s="84">
         <v>8</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="84">
         <v>8</v>
       </c>
     </row>
@@ -2090,74 +2104,74 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="87">
-        <v>1</v>
-      </c>
-      <c r="D17" s="87">
+      <c r="C17" s="84">
+        <v>1</v>
+      </c>
+      <c r="D17" s="84">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="87">
+      <c r="C18" s="84">
         <v>2</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="84">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="C19" s="87">
+      <c r="C19" s="84">
         <v>3</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="84">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="C20" s="87">
+      <c r="C20" s="84">
         <v>4</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="84">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="C21" s="87">
+      <c r="C21" s="84">
         <v>5</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="84">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="C22" s="87">
+      <c r="C22" s="84">
         <v>6</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="84">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="C23" s="87">
+      <c r="C23" s="84">
         <v>7</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="84">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="87">
+      <c r="C24" s="84">
         <v>8</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="84">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="84">
         <v>17</v>
       </c>
     </row>
@@ -2172,11 +2186,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3:R16"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2312,13 +2326,13 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H01AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="94">
         <v>1</v>
       </c>
     </row>
@@ -2357,11 +2371,11 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H01AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="91"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="43">
@@ -2398,13 +2412,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="94">
         <v>2</v>
       </c>
     </row>
@@ -2443,11 +2457,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43">
@@ -2484,13 +2498,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="91">
+      <c r="N7" s="94">
         <v>3</v>
       </c>
     </row>
@@ -2529,11 +2543,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="91"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="43">
@@ -2570,13 +2584,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="91">
+      <c r="N9" s="94">
         <v>4</v>
       </c>
     </row>
@@ -2615,11 +2629,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="92"/>
-      <c r="N10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43">
@@ -2656,13 +2670,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="91">
+      <c r="N11" s="94">
         <v>5</v>
       </c>
     </row>
@@ -2701,11 +2715,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="91"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43">
@@ -2742,13 +2756,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="M13" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="91">
+      <c r="N13" s="94">
         <v>6</v>
       </c>
     </row>
@@ -2787,11 +2801,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="43">
@@ -2828,13 +2842,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="85" t="s">
+      <c r="L15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="94">
         <v>7</v>
       </c>
     </row>
@@ -2873,11 +2887,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="94"/>
-      <c r="N16" s="91"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -2914,13 +2928,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="92" t="s">
+      <c r="M17" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="94">
         <v>8</v>
       </c>
     </row>
@@ -2959,11 +2973,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="92"/>
-      <c r="N18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="94"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -3000,13 +3014,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="93" t="s">
+      <c r="M19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="94">
         <v>9</v>
       </c>
     </row>
@@ -3045,11 +3059,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="91"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -3086,13 +3100,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="91">
+      <c r="N21" s="94">
         <v>10</v>
       </c>
     </row>
@@ -3131,11 +3145,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="94"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -3172,13 +3186,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="91">
+      <c r="N23" s="94">
         <v>11</v>
       </c>
     </row>
@@ -3217,11 +3231,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="91"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="94"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -3258,13 +3272,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="85" t="s">
+      <c r="L25" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="92" t="s">
+      <c r="M25" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="91">
+      <c r="N25" s="94">
         <v>12</v>
       </c>
     </row>
@@ -3303,11 +3317,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="86" t="s">
+      <c r="L26" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="94"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -3344,13 +3358,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="85" t="s">
+      <c r="L27" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="93" t="s">
+      <c r="M27" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="91">
+      <c r="N27" s="94">
         <v>13</v>
       </c>
     </row>
@@ -3389,11 +3403,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="86" t="s">
+      <c r="L28" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="91"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="94"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -3430,13 +3444,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="85" t="s">
+      <c r="L29" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="92" t="s">
+      <c r="M29" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="91">
+      <c r="N29" s="94">
         <v>14</v>
       </c>
     </row>
@@ -3475,11 +3489,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="94"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -3516,13 +3530,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="93" t="s">
+      <c r="M31" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="91">
+      <c r="N31" s="94">
         <v>15</v>
       </c>
     </row>
@@ -3561,11 +3575,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="86" t="s">
+      <c r="L32" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="91"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -3602,13 +3616,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="85" t="s">
+      <c r="L33" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="92" t="s">
+      <c r="M33" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="91">
+      <c r="N33" s="94">
         <v>16</v>
       </c>
     </row>
@@ -3647,11 +3661,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="86" t="s">
+      <c r="L34" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="94"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -3688,10 +3702,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="85" t="s">
+      <c r="L35" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="94" t="s">
+      <c r="M35" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3730,10 +3744,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H01PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="86" t="s">
+      <c r="L36" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="94"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -3770,7 +3784,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H01:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="85" t="s">
+      <c r="L37" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -3812,7 +3826,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H01:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="86" t="s">
+      <c r="L38" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -3854,7 +3868,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H01:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="85" t="s">
+      <c r="L39" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -3938,10 +3952,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="93" t="s">
+      <c r="M41" s="92" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3980,10 +3994,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="86" t="s">
+      <c r="L42" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="94"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -4020,10 +4034,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="85" t="s">
+      <c r="L43" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="92" t="s">
+      <c r="M43" s="91" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4062,10 +4076,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="86" t="s">
+      <c r="L44" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="92"/>
+      <c r="M44" s="91"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -4102,10 +4116,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="85" t="s">
+      <c r="L45" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="93" t="s">
+      <c r="M45" s="92" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4144,10 +4158,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="86" t="s">
+      <c r="L46" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="94"/>
+      <c r="M46" s="93"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -4184,10 +4198,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="85" t="s">
+      <c r="L47" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="92" t="s">
+      <c r="M47" s="91" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4226,10 +4240,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="86" t="s">
+      <c r="L48" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="92"/>
+      <c r="M48" s="91"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -4266,10 +4280,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="85" t="s">
+      <c r="L49" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="93" t="s">
+      <c r="M49" s="92" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4308,10 +4322,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="86" t="s">
+      <c r="L50" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="94"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -4348,10 +4362,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="85" t="s">
+      <c r="L51" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="92" t="s">
+      <c r="M51" s="91" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4390,10 +4404,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="86" t="s">
+      <c r="L52" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="92"/>
+      <c r="M52" s="91"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -4430,10 +4444,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="85" t="s">
+      <c r="L53" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="93" t="s">
+      <c r="M53" s="92" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4472,10 +4486,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="86" t="s">
+      <c r="L54" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="94"/>
+      <c r="M54" s="93"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -4512,10 +4526,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="85" t="s">
+      <c r="L55" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="92" t="s">
+      <c r="M55" s="91" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4554,10 +4568,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="86" t="s">
+      <c r="L56" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="92"/>
+      <c r="M56" s="91"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -4594,10 +4608,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="85" t="s">
+      <c r="L57" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="93" t="s">
+      <c r="M57" s="92" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4636,10 +4650,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="86" t="s">
+      <c r="L58" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="94"/>
+      <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -4676,10 +4690,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="85" t="s">
+      <c r="L59" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="92" t="s">
+      <c r="M59" s="91" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4718,10 +4732,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="86" t="s">
+      <c r="L60" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="92"/>
+      <c r="M60" s="91"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -4758,10 +4772,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="85" t="s">
+      <c r="L61" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="93" t="s">
+      <c r="M61" s="92" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4800,10 +4814,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="86" t="s">
+      <c r="L62" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="94"/>
+      <c r="M62" s="93"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -4840,10 +4854,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="85" t="s">
+      <c r="L63" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="92" t="s">
+      <c r="M63" s="91" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4882,10 +4896,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="86" t="s">
+      <c r="L64" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="92"/>
+      <c r="M64" s="91"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="43">
@@ -4922,10 +4936,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="85" t="s">
+      <c r="L65" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="93" t="s">
+      <c r="M65" s="92" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4964,10 +4978,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="86" t="s">
+      <c r="L66" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="94"/>
+      <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="43">
@@ -5004,10 +5018,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="85" t="s">
+      <c r="L67" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="92" t="s">
+      <c r="M67" s="91" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5046,10 +5060,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H02BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="86" t="s">
+      <c r="L68" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="92"/>
+      <c r="M68" s="91"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="43">
@@ -5086,10 +5100,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="85" t="s">
+      <c r="L69" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="93" t="s">
+      <c r="M69" s="92" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5128,10 +5142,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="86" t="s">
+      <c r="L70" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="94"/>
+      <c r="M70" s="93"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="43">
@@ -5168,10 +5182,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="85" t="s">
+      <c r="L71" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="92" t="s">
+      <c r="M71" s="91" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5210,10 +5224,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="86" t="s">
+      <c r="L72" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="92"/>
+      <c r="M72" s="91"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="43">
@@ -5250,10 +5264,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="85" t="s">
+      <c r="L73" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="94" t="s">
+      <c r="M73" s="93" t="s">
         <v>21</v>
       </c>
       <c r="N73" s="95" t="s">
@@ -5295,10 +5309,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H02PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="86" t="s">
+      <c r="L74" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="94"/>
+      <c r="M74" s="93"/>
       <c r="N74" s="95"/>
     </row>
     <row r="75" spans="1:14">
@@ -5336,7 +5350,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H02:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="84" t="s">
+      <c r="L75" s="86" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -5378,7 +5392,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H02:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="86" t="s">
+      <c r="L76" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -5420,7 +5434,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H02:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="85" t="s">
+      <c r="L77" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -5502,9 +5516,9 @@
       </c>
       <c r="K79" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut1-Mon</v>
-      </c>
-      <c r="L79" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn1-Mon</v>
+      </c>
+      <c r="L79" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -5544,9 +5558,9 @@
       </c>
       <c r="K80" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut1-Mon</v>
-      </c>
-      <c r="L80" s="86" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn1-Mon</v>
+      </c>
+      <c r="L80" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -5586,9 +5600,9 @@
       </c>
       <c r="K81" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn1-Mon</v>
-      </c>
-      <c r="L81" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut1-Mon</v>
+      </c>
+      <c r="L81" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -5628,7 +5642,7 @@
       </c>
       <c r="K82" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn1-Mon</v>
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut1-Mon</v>
       </c>
       <c r="L82" s="78" t="s">
         <v>150</v>
@@ -5637,25 +5651,35 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
-      <c r="J88" s="29" t="str">
-        <f>"'"&amp;K3&amp;"'"&amp;"+"&amp;"'"&amp;K4&amp;"'"&amp;"+"&amp;"'"&amp;K5&amp;"'"&amp;"+"&amp;"'"&amp;K6&amp;"'"&amp;"+"&amp;"'"&amp;K7&amp;"'"&amp;"+"&amp;"'"&amp;K8&amp;"'"&amp;"+"&amp;"'"&amp;K9&amp;"'"&amp;"+"&amp;"'"&amp;K10&amp;"'"&amp;"+"&amp;"'"&amp;K11&amp;"'"&amp;"+"&amp;"'"&amp;K12&amp;"'"&amp;"+"&amp;"'"&amp;K13&amp;"'"&amp;"+"&amp;"'"&amp;K14&amp;"'"&amp;"+"&amp;"'"&amp;K15&amp;"'"&amp;"+"&amp;"'"&amp;K16&amp;"'"&amp;"+"&amp;"'"&amp;K17&amp;"'"&amp;"+"&amp;"'"&amp;K18&amp;"'"&amp;"+"&amp;"'"&amp;K19&amp;"'"&amp;"+"&amp;"'"&amp;K20&amp;"'"&amp;"+"&amp;"'"&amp;K21&amp;"'"&amp;"+"&amp;"'"&amp;K22&amp;"'"&amp;"+"&amp;"'"&amp;K23&amp;"'"&amp;"+"&amp;"'"&amp;K24&amp;"'"&amp;"+"&amp;"'"&amp;K25&amp;"'"&amp;"+"&amp;"'"&amp;K26&amp;"'"&amp;"+"&amp;"'"&amp;K27&amp;"'"&amp;"+"&amp;"'"&amp;K28&amp;"'"&amp;"+"&amp;"'"&amp;K29&amp;"'"&amp;"+"&amp;"'"&amp;K30&amp;"'"&amp;"+"&amp;"'"&amp;K31&amp;"'"&amp;"+"&amp;"'"&amp;K32&amp;"'"&amp;"+"&amp;"'"&amp;K33&amp;"'"&amp;"+"&amp;"'"&amp;K34&amp;"'"&amp;"+"&amp;"'"&amp;K35&amp;"'"&amp;"+"&amp;"'"&amp;K36&amp;"'"&amp;"+"&amp;"'"&amp;K41&amp;"'"&amp;"+"&amp;"'"&amp;K42&amp;"'"&amp;"+"&amp;"'"&amp;K43&amp;"'"&amp;"+"&amp;"'"&amp;K44&amp;"'"&amp;"+"&amp;"'"&amp;K45&amp;"'"&amp;"+"&amp;"'"&amp;K46&amp;"'"&amp;"+"&amp;"'"&amp;K47&amp;"'"&amp;"+"&amp;"'"&amp;K48&amp;"'"&amp;"+"&amp;"'"&amp;K49&amp;"'"&amp;"+"&amp;"'"&amp;K50&amp;"'"&amp;"+"&amp;"'"&amp;K51&amp;"'"&amp;"+"&amp;"'"&amp;K52&amp;"'"&amp;"+"&amp;"'"&amp;K53&amp;"'"&amp;"+"&amp;"'"&amp;K54&amp;"'"&amp;"+"&amp;"'"&amp;K55&amp;"'"&amp;"+"&amp;"'"&amp;K56&amp;"'"&amp;"+"&amp;"'"&amp;K57&amp;"'"&amp;"+"&amp;"'"&amp;K58&amp;"'"&amp;"+"&amp;"'"&amp;K59&amp;"'"&amp;"+"&amp;"'"&amp;K60&amp;"'"&amp;"+"&amp;"'"&amp;K61&amp;"'"&amp;"+"&amp;"'"&amp;K62&amp;"'"&amp;"+"&amp;"'"&amp;K63&amp;"'"&amp;"+"&amp;"'"&amp;K64&amp;"'"&amp;"+"&amp;"'"&amp;K65&amp;"'"&amp;"+"&amp;"'"&amp;K66&amp;"'"&amp;"+"&amp;"'"&amp;K67&amp;"'"&amp;"+"&amp;"'"&amp;K68&amp;"'"&amp;"+"&amp;"'"&amp;K69&amp;"'"&amp;"+"&amp;"'"&amp;K70&amp;"'"&amp;"+"&amp;"'"&amp;K71&amp;"'"&amp;"+"&amp;"'"&amp;K72&amp;"'"&amp;"+"&amp;"'"&amp;K73&amp;"'"&amp;"+"&amp;"'"&amp;K74&amp;"'"</f>
-        <v>'RA-ToSIA01:RF-SSAmp-H01AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H01PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H01PreAmp:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H02PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H02PreAmp:Current2-Mon'</v>
-      </c>
+    <row r="84" spans="1:13">
+      <c r="H84" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="M55:M56"/>
     <mergeCell ref="M57:M58"/>
@@ -5672,30 +5696,17 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="M47:M48"/>
     <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5703,11 +5714,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55:I56"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5843,13 +5854,13 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H03AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="94">
         <v>1</v>
       </c>
     </row>
@@ -5888,11 +5899,11 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H03AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="91"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="43">
@@ -5929,13 +5940,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="94">
         <v>2</v>
       </c>
     </row>
@@ -5974,11 +5985,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43">
@@ -6015,13 +6026,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="91">
+      <c r="N7" s="94">
         <v>3</v>
       </c>
     </row>
@@ -6060,11 +6071,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="91"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="43">
@@ -6101,13 +6112,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="91">
+      <c r="N9" s="94">
         <v>4</v>
       </c>
     </row>
@@ -6146,11 +6157,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="92"/>
-      <c r="N10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43">
@@ -6187,13 +6198,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="91">
+      <c r="N11" s="94">
         <v>5</v>
       </c>
     </row>
@@ -6232,11 +6243,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="91"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43">
@@ -6273,13 +6284,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="M13" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="91">
+      <c r="N13" s="94">
         <v>6</v>
       </c>
     </row>
@@ -6318,11 +6329,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="43">
@@ -6359,13 +6370,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="85" t="s">
+      <c r="L15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="94">
         <v>7</v>
       </c>
     </row>
@@ -6404,11 +6415,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="94"/>
-      <c r="N16" s="91"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -6445,13 +6456,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="92" t="s">
+      <c r="M17" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="94">
         <v>8</v>
       </c>
     </row>
@@ -6490,11 +6501,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="92"/>
-      <c r="N18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="94"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -6531,13 +6542,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="93" t="s">
+      <c r="M19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="94">
         <v>9</v>
       </c>
     </row>
@@ -6576,11 +6587,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="91"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -6617,13 +6628,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="91">
+      <c r="N21" s="94">
         <v>10</v>
       </c>
     </row>
@@ -6662,11 +6673,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="94"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -6703,13 +6714,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="91">
+      <c r="N23" s="94">
         <v>11</v>
       </c>
     </row>
@@ -6748,11 +6759,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="91"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="94"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -6789,13 +6800,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="85" t="s">
+      <c r="L25" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="92" t="s">
+      <c r="M25" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="91">
+      <c r="N25" s="94">
         <v>12</v>
       </c>
     </row>
@@ -6834,11 +6845,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="86" t="s">
+      <c r="L26" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="94"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -6875,13 +6886,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="85" t="s">
+      <c r="L27" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="93" t="s">
+      <c r="M27" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="91">
+      <c r="N27" s="94">
         <v>13</v>
       </c>
     </row>
@@ -6920,11 +6931,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="86" t="s">
+      <c r="L28" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="91"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="94"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -6961,13 +6972,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="85" t="s">
+      <c r="L29" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="92" t="s">
+      <c r="M29" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="91">
+      <c r="N29" s="94">
         <v>14</v>
       </c>
     </row>
@@ -7006,11 +7017,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="94"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -7047,13 +7058,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="93" t="s">
+      <c r="M31" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="91">
+      <c r="N31" s="94">
         <v>15</v>
       </c>
     </row>
@@ -7092,11 +7103,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="86" t="s">
+      <c r="L32" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="91"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -7130,16 +7141,16 @@
         <v>46</v>
       </c>
       <c r="K33" s="51" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(I33="-",E33&amp;"-"&amp;F33&amp;":"&amp;G33&amp;"-"&amp;H33&amp;":"&amp;J33,E33&amp;"-"&amp;F33&amp;":"&amp;G33&amp;"-"&amp;H33&amp;"-"&amp;I33&amp;":"&amp;J33)</f>
         <v>RA-ToSIA01:RF-SSAmp-H03BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="85" t="s">
+      <c r="L33" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="92" t="s">
+      <c r="M33" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="91">
+      <c r="N33" s="94">
         <v>16</v>
       </c>
     </row>
@@ -7178,11 +7189,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="86" t="s">
+      <c r="L34" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="94"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -7219,10 +7230,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="85" t="s">
+      <c r="L35" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="94" t="s">
+      <c r="M35" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7261,10 +7272,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H03PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="86" t="s">
+      <c r="L36" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="94"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -7301,7 +7312,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H03:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="85" t="s">
+      <c r="L37" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -7343,7 +7354,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H03:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="86" t="s">
+      <c r="L38" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -7385,7 +7396,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H03:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="85" t="s">
+      <c r="L39" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -7469,10 +7480,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="93" t="s">
+      <c r="M41" s="92" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7511,10 +7522,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="86" t="s">
+      <c r="L42" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="94"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -7551,10 +7562,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="85" t="s">
+      <c r="L43" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="92" t="s">
+      <c r="M43" s="91" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7593,10 +7604,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="86" t="s">
+      <c r="L44" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="92"/>
+      <c r="M44" s="91"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -7633,10 +7644,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="85" t="s">
+      <c r="L45" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="93" t="s">
+      <c r="M45" s="92" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7675,10 +7686,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="86" t="s">
+      <c r="L46" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="94"/>
+      <c r="M46" s="93"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -7715,10 +7726,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="85" t="s">
+      <c r="L47" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="92" t="s">
+      <c r="M47" s="91" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7757,10 +7768,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="86" t="s">
+      <c r="L48" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="92"/>
+      <c r="M48" s="91"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -7797,10 +7808,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="85" t="s">
+      <c r="L49" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="93" t="s">
+      <c r="M49" s="92" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7839,10 +7850,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="86" t="s">
+      <c r="L50" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="94"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -7879,10 +7890,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="85" t="s">
+      <c r="L51" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="92" t="s">
+      <c r="M51" s="91" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7921,10 +7932,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="86" t="s">
+      <c r="L52" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="92"/>
+      <c r="M52" s="91"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -7961,10 +7972,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="85" t="s">
+      <c r="L53" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="93" t="s">
+      <c r="M53" s="92" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8003,10 +8014,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="86" t="s">
+      <c r="L54" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="94"/>
+      <c r="M54" s="93"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -8043,10 +8054,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="85" t="s">
+      <c r="L55" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="92" t="s">
+      <c r="M55" s="91" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8085,10 +8096,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="86" t="s">
+      <c r="L56" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="92"/>
+      <c r="M56" s="91"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -8125,10 +8136,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="85" t="s">
+      <c r="L57" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="93" t="s">
+      <c r="M57" s="92" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8167,10 +8178,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="86" t="s">
+      <c r="L58" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="94"/>
+      <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -8207,10 +8218,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="85" t="s">
+      <c r="L59" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="92" t="s">
+      <c r="M59" s="91" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8249,10 +8260,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="86" t="s">
+      <c r="L60" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="92"/>
+      <c r="M60" s="91"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -8289,10 +8300,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="85" t="s">
+      <c r="L61" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="93" t="s">
+      <c r="M61" s="92" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8331,10 +8342,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="86" t="s">
+      <c r="L62" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="94"/>
+      <c r="M62" s="93"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -8371,10 +8382,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="85" t="s">
+      <c r="L63" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="92" t="s">
+      <c r="M63" s="91" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8413,10 +8424,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="86" t="s">
+      <c r="L64" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="92"/>
+      <c r="M64" s="91"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="43">
@@ -8453,10 +8464,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="85" t="s">
+      <c r="L65" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="93" t="s">
+      <c r="M65" s="92" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8495,10 +8506,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="86" t="s">
+      <c r="L66" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="94"/>
+      <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="43">
@@ -8535,10 +8546,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="85" t="s">
+      <c r="L67" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="92" t="s">
+      <c r="M67" s="91" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8577,10 +8588,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H04BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="86" t="s">
+      <c r="L68" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="92"/>
+      <c r="M68" s="91"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="43">
@@ -8617,10 +8628,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="85" t="s">
+      <c r="L69" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="93" t="s">
+      <c r="M69" s="92" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8659,10 +8670,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="86" t="s">
+      <c r="L70" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="94"/>
+      <c r="M70" s="93"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="43">
@@ -8699,10 +8710,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="85" t="s">
+      <c r="L71" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="92" t="s">
+      <c r="M71" s="91" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8741,10 +8752,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="86" t="s">
+      <c r="L72" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="92"/>
+      <c r="M72" s="91"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="43">
@@ -8781,10 +8792,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="85" t="s">
+      <c r="L73" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="94" t="s">
+      <c r="M73" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8823,10 +8834,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H04PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="86" t="s">
+      <c r="L74" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="94"/>
+      <c r="M74" s="93"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="43">
@@ -8863,7 +8874,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H04:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="85" t="s">
+      <c r="L75" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -8905,7 +8916,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H04:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="86" t="s">
+      <c r="L76" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -8947,7 +8958,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H04:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="85" t="s">
+      <c r="L77" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -9029,9 +9040,9 @@
       </c>
       <c r="K79" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut2-Mon</v>
-      </c>
-      <c r="L79" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn2-Mon</v>
+      </c>
+      <c r="L79" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -9071,9 +9082,9 @@
       </c>
       <c r="K80" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut2-Mon</v>
-      </c>
-      <c r="L80" s="86" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn2-Mon</v>
+      </c>
+      <c r="L80" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -9113,9 +9124,9 @@
       </c>
       <c r="K81" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn2-Mon</v>
-      </c>
-      <c r="L81" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut2-Mon</v>
+      </c>
+      <c r="L81" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -9155,7 +9166,7 @@
       </c>
       <c r="K82" s="79" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn2-Mon</v>
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut2-Mon</v>
       </c>
       <c r="L82" s="31" t="s">
         <v>150</v>
@@ -9164,38 +9175,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="I85" s="29" t="str">
-        <f>"'"&amp;K3&amp;"'"&amp;"+"&amp;"'"&amp;K4&amp;"'"&amp;"+"&amp;"'"&amp;K5&amp;"'"&amp;"+"&amp;"'"&amp;K6&amp;"'"&amp;"+"&amp;"'"&amp;K7&amp;"'"&amp;"+"&amp;"'"&amp;K8&amp;"'"&amp;"+"&amp;"'"&amp;K9&amp;"'"&amp;"+"&amp;"'"&amp;K10&amp;"'"&amp;"+"&amp;"'"&amp;K11&amp;"'"&amp;"+"&amp;"'"&amp;K12&amp;"'"&amp;"+"&amp;"'"&amp;K13&amp;"'"&amp;"+"&amp;"'"&amp;K14&amp;"'"&amp;"+"&amp;"'"&amp;K15&amp;"'"&amp;"+"&amp;"'"&amp;K16&amp;"'"&amp;"+"&amp;"'"&amp;K17&amp;"'"&amp;"+"&amp;"'"&amp;K18&amp;"'"&amp;"+"&amp;"'"&amp;K19&amp;"'"&amp;"+"&amp;"'"&amp;K20&amp;"'"&amp;"+"&amp;"'"&amp;K21&amp;"'"&amp;"+"&amp;"'"&amp;K22&amp;"'"&amp;"+"&amp;"'"&amp;K23&amp;"'"&amp;"+"&amp;"'"&amp;K24&amp;"'"&amp;"+"&amp;"'"&amp;K25&amp;"'"&amp;"+"&amp;"'"&amp;K26&amp;"'"&amp;"+"&amp;"'"&amp;K27&amp;"'"&amp;"+"&amp;"'"&amp;K28&amp;"'"&amp;"+"&amp;"'"&amp;K29&amp;"'"&amp;"+"&amp;"'"&amp;K30&amp;"'"&amp;"+"&amp;"'"&amp;K31&amp;"'"&amp;"+"&amp;"'"&amp;K32&amp;"'"&amp;"+"&amp;"'"&amp;K33&amp;"'"&amp;"+"&amp;"'"&amp;K34&amp;"'"&amp;"+"&amp;"'"&amp;K35&amp;"'"&amp;"+"&amp;"'"&amp;K36&amp;"'"&amp;"+"&amp;"'"&amp;K41&amp;"'"&amp;"+"&amp;"'"&amp;K42&amp;"'"&amp;"+"&amp;"'"&amp;K43&amp;"'"&amp;"+"&amp;"'"&amp;K44&amp;"'"&amp;"+"&amp;"'"&amp;K45&amp;"'"&amp;"+"&amp;"'"&amp;K46&amp;"'"&amp;"+"&amp;"'"&amp;K47&amp;"'"&amp;"+"&amp;"'"&amp;K48&amp;"'"&amp;"+"&amp;"'"&amp;K49&amp;"'"&amp;"+"&amp;"'"&amp;K50&amp;"'"&amp;"+"&amp;"'"&amp;K51&amp;"'"&amp;"+"&amp;"'"&amp;K52&amp;"'"&amp;"+"&amp;"'"&amp;K53&amp;"'"&amp;"+"&amp;"'"&amp;K54&amp;"'"&amp;"+"&amp;"'"&amp;K55&amp;"'"&amp;"+"&amp;"'"&amp;K56&amp;"'"&amp;"+"&amp;"'"&amp;K57&amp;"'"&amp;"+"&amp;"'"&amp;K58&amp;"'"&amp;"+"&amp;"'"&amp;K59&amp;"'"&amp;"+"&amp;"'"&amp;K60&amp;"'"&amp;"+"&amp;"'"&amp;K61&amp;"'"&amp;"+"&amp;"'"&amp;K62&amp;"'"&amp;"+"&amp;"'"&amp;K63&amp;"'"&amp;"+"&amp;"'"&amp;K64&amp;"'"&amp;"+"&amp;"'"&amp;K65&amp;"'"&amp;"+"&amp;"'"&amp;K66&amp;"'"&amp;"+"&amp;"'"&amp;K67&amp;"'"&amp;"+"&amp;"'"&amp;K68&amp;"'"&amp;"+"&amp;"'"&amp;K69&amp;"'"&amp;"+"&amp;"'"&amp;K70&amp;"'"&amp;"+"&amp;"'"&amp;K71&amp;"'"&amp;"+"&amp;"'"&amp;K72&amp;"'"&amp;"+"&amp;"'"&amp;K73&amp;"'"&amp;"+"&amp;"'"&amp;K74&amp;"'"</f>
-        <v>'RA-ToSIA01:RF-SSAmp-H03AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H03PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H03PreAmp:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H04PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H04PreAmp:Current2-Mon'</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
     <mergeCell ref="M67:M68"/>
     <mergeCell ref="M69:M70"/>
     <mergeCell ref="M71:M72"/>
@@ -9212,16 +9203,30 @@
     <mergeCell ref="M61:M62"/>
     <mergeCell ref="M63:M64"/>
     <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9229,11 +9234,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34:J35"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9369,13 +9374,13 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H05AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9414,11 +9419,11 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H05AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="91"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="43">
@@ -9455,13 +9460,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="94">
         <v>2</v>
       </c>
     </row>
@@ -9500,11 +9505,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43">
@@ -9541,13 +9546,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="91">
+      <c r="N7" s="94">
         <v>3</v>
       </c>
     </row>
@@ -9586,11 +9591,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="91"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="43">
@@ -9627,13 +9632,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="91">
+      <c r="N9" s="94">
         <v>4</v>
       </c>
     </row>
@@ -9672,11 +9677,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="92"/>
-      <c r="N10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43">
@@ -9713,13 +9718,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="91">
+      <c r="N11" s="94">
         <v>5</v>
       </c>
     </row>
@@ -9758,11 +9763,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="91"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43">
@@ -9799,13 +9804,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="M13" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="91">
+      <c r="N13" s="94">
         <v>6</v>
       </c>
     </row>
@@ -9844,11 +9849,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="43">
@@ -9885,13 +9890,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="85" t="s">
+      <c r="L15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="94">
         <v>7</v>
       </c>
     </row>
@@ -9930,11 +9935,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="94"/>
-      <c r="N16" s="91"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -9971,13 +9976,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="92" t="s">
+      <c r="M17" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="94">
         <v>8</v>
       </c>
     </row>
@@ -10016,11 +10021,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="92"/>
-      <c r="N18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="94"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -10057,13 +10062,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="93" t="s">
+      <c r="M19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="94">
         <v>9</v>
       </c>
     </row>
@@ -10102,11 +10107,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="91"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -10143,13 +10148,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="91">
+      <c r="N21" s="94">
         <v>10</v>
       </c>
     </row>
@@ -10188,11 +10193,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="94"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -10229,13 +10234,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="91">
+      <c r="N23" s="94">
         <v>11</v>
       </c>
     </row>
@@ -10274,11 +10279,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="91"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="94"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -10315,13 +10320,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="85" t="s">
+      <c r="L25" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="92" t="s">
+      <c r="M25" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="91">
+      <c r="N25" s="94">
         <v>12</v>
       </c>
     </row>
@@ -10360,11 +10365,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="86" t="s">
+      <c r="L26" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="94"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -10401,13 +10406,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="85" t="s">
+      <c r="L27" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="93" t="s">
+      <c r="M27" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="91">
+      <c r="N27" s="94">
         <v>13</v>
       </c>
     </row>
@@ -10446,11 +10451,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="86" t="s">
+      <c r="L28" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="91"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="94"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -10487,13 +10492,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="85" t="s">
+      <c r="L29" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="92" t="s">
+      <c r="M29" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="91">
+      <c r="N29" s="94">
         <v>14</v>
       </c>
     </row>
@@ -10532,11 +10537,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="94"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -10573,13 +10578,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="93" t="s">
+      <c r="M31" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="91">
+      <c r="N31" s="94">
         <v>15</v>
       </c>
     </row>
@@ -10618,11 +10623,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="86" t="s">
+      <c r="L32" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="91"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -10659,13 +10664,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="85" t="s">
+      <c r="L33" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="92" t="s">
+      <c r="M33" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="91">
+      <c r="N33" s="94">
         <v>16</v>
       </c>
     </row>
@@ -10704,11 +10709,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="86" t="s">
+      <c r="L34" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="94"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -10745,10 +10750,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="85" t="s">
+      <c r="L35" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="94" t="s">
+      <c r="M35" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10787,10 +10792,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H05PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="86" t="s">
+      <c r="L36" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="94"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -10827,7 +10832,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H05:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="85" t="s">
+      <c r="L37" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -10869,7 +10874,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H05:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="86" t="s">
+      <c r="L38" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -10911,7 +10916,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H05:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="85" t="s">
+      <c r="L39" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -10995,10 +11000,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="93" t="s">
+      <c r="M41" s="92" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11037,10 +11042,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="86" t="s">
+      <c r="L42" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="94"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -11077,10 +11082,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="85" t="s">
+      <c r="L43" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="92" t="s">
+      <c r="M43" s="91" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11119,10 +11124,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="86" t="s">
+      <c r="L44" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="92"/>
+      <c r="M44" s="91"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -11159,10 +11164,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="85" t="s">
+      <c r="L45" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="93" t="s">
+      <c r="M45" s="92" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11201,10 +11206,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="86" t="s">
+      <c r="L46" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="94"/>
+      <c r="M46" s="93"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -11241,10 +11246,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="85" t="s">
+      <c r="L47" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="92" t="s">
+      <c r="M47" s="91" t="s">
         <v>67</v>
       </c>
     </row>
@@ -11283,10 +11288,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="86" t="s">
+      <c r="L48" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="92"/>
+      <c r="M48" s="91"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -11323,10 +11328,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="85" t="s">
+      <c r="L49" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="93" t="s">
+      <c r="M49" s="92" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11365,10 +11370,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="86" t="s">
+      <c r="L50" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="94"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -11405,10 +11410,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="85" t="s">
+      <c r="L51" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="92" t="s">
+      <c r="M51" s="91" t="s">
         <v>77</v>
       </c>
     </row>
@@ -11447,10 +11452,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="86" t="s">
+      <c r="L52" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="92"/>
+      <c r="M52" s="91"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -11487,10 +11492,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="85" t="s">
+      <c r="L53" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="93" t="s">
+      <c r="M53" s="92" t="s">
         <v>81</v>
       </c>
     </row>
@@ -11529,10 +11534,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="86" t="s">
+      <c r="L54" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="94"/>
+      <c r="M54" s="93"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -11569,10 +11574,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="85" t="s">
+      <c r="L55" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="92" t="s">
+      <c r="M55" s="91" t="s">
         <v>85</v>
       </c>
     </row>
@@ -11611,10 +11616,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="86" t="s">
+      <c r="L56" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="92"/>
+      <c r="M56" s="91"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -11651,10 +11656,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="85" t="s">
+      <c r="L57" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="93" t="s">
+      <c r="M57" s="92" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11693,10 +11698,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="86" t="s">
+      <c r="L58" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="94"/>
+      <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -11733,10 +11738,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="85" t="s">
+      <c r="L59" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="92" t="s">
+      <c r="M59" s="91" t="s">
         <v>93</v>
       </c>
     </row>
@@ -11775,10 +11780,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="86" t="s">
+      <c r="L60" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="92"/>
+      <c r="M60" s="91"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -11815,10 +11820,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="85" t="s">
+      <c r="L61" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="93" t="s">
+      <c r="M61" s="92" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11857,10 +11862,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="86" t="s">
+      <c r="L62" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="94"/>
+      <c r="M62" s="93"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -11897,10 +11902,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="85" t="s">
+      <c r="L63" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="92" t="s">
+      <c r="M63" s="91" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11939,10 +11944,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="86" t="s">
+      <c r="L64" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="92"/>
+      <c r="M64" s="91"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="43">
@@ -11979,10 +11984,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="85" t="s">
+      <c r="L65" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="93" t="s">
+      <c r="M65" s="92" t="s">
         <v>105</v>
       </c>
     </row>
@@ -12021,10 +12026,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="86" t="s">
+      <c r="L66" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="94"/>
+      <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="43">
@@ -12061,10 +12066,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="85" t="s">
+      <c r="L67" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="92" t="s">
+      <c r="M67" s="91" t="s">
         <v>109</v>
       </c>
     </row>
@@ -12103,10 +12108,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H06BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="86" t="s">
+      <c r="L68" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="92"/>
+      <c r="M68" s="91"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="43">
@@ -12143,10 +12148,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="85" t="s">
+      <c r="L69" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="93" t="s">
+      <c r="M69" s="92" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12185,10 +12190,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="86" t="s">
+      <c r="L70" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="94"/>
+      <c r="M70" s="93"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="43">
@@ -12225,10 +12230,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="85" t="s">
+      <c r="L71" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="92" t="s">
+      <c r="M71" s="91" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12267,10 +12272,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="86" t="s">
+      <c r="L72" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="92"/>
+      <c r="M72" s="91"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="43">
@@ -12307,10 +12312,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="85" t="s">
+      <c r="L73" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="94" t="s">
+      <c r="M73" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12349,10 +12354,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H06PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="86" t="s">
+      <c r="L74" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="94"/>
+      <c r="M74" s="93"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="43">
@@ -12389,7 +12394,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H06:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="85" t="s">
+      <c r="L75" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -12431,7 +12436,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H06:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="86" t="s">
+      <c r="L76" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -12473,7 +12478,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H06:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="85" t="s">
+      <c r="L77" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -12555,9 +12560,9 @@
       </c>
       <c r="K79" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut3-Mon</v>
-      </c>
-      <c r="L79" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn3-Mon</v>
+      </c>
+      <c r="L79" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -12597,9 +12602,9 @@
       </c>
       <c r="K80" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut3-Mon</v>
-      </c>
-      <c r="L80" s="86" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn3-Mon</v>
+      </c>
+      <c r="L80" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -12639,9 +12644,9 @@
       </c>
       <c r="K81" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn3-Mon</v>
-      </c>
-      <c r="L81" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut3-Mon</v>
+      </c>
+      <c r="L81" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -12681,7 +12686,7 @@
       </c>
       <c r="K82" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn3-Mon</v>
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut3-Mon</v>
       </c>
       <c r="L82" s="31" t="s">
         <v>150</v>
@@ -12690,33 +12695,23 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="I86" s="29" t="str">
-        <f>"'"&amp;K3&amp;"'"&amp;"+"&amp;"'"&amp;K4&amp;"'"&amp;"+"&amp;"'"&amp;K5&amp;"'"&amp;"+"&amp;"'"&amp;K6&amp;"'"&amp;"+"&amp;"'"&amp;K7&amp;"'"&amp;"+"&amp;"'"&amp;K8&amp;"'"&amp;"+"&amp;"'"&amp;K9&amp;"'"&amp;"+"&amp;"'"&amp;K10&amp;"'"&amp;"+"&amp;"'"&amp;K11&amp;"'"&amp;"+"&amp;"'"&amp;K12&amp;"'"&amp;"+"&amp;"'"&amp;K13&amp;"'"&amp;"+"&amp;"'"&amp;K14&amp;"'"&amp;"+"&amp;"'"&amp;K15&amp;"'"&amp;"+"&amp;"'"&amp;K16&amp;"'"&amp;"+"&amp;"'"&amp;K17&amp;"'"&amp;"+"&amp;"'"&amp;K18&amp;"'"&amp;"+"&amp;"'"&amp;K19&amp;"'"&amp;"+"&amp;"'"&amp;K20&amp;"'"&amp;"+"&amp;"'"&amp;K21&amp;"'"&amp;"+"&amp;"'"&amp;K22&amp;"'"&amp;"+"&amp;"'"&amp;K23&amp;"'"&amp;"+"&amp;"'"&amp;K24&amp;"'"&amp;"+"&amp;"'"&amp;K25&amp;"'"&amp;"+"&amp;"'"&amp;K26&amp;"'"&amp;"+"&amp;"'"&amp;K27&amp;"'"&amp;"+"&amp;"'"&amp;K28&amp;"'"&amp;"+"&amp;"'"&amp;K29&amp;"'"&amp;"+"&amp;"'"&amp;K30&amp;"'"&amp;"+"&amp;"'"&amp;K31&amp;"'"&amp;"+"&amp;"'"&amp;K32&amp;"'"&amp;"+"&amp;"'"&amp;K33&amp;"'"&amp;"+"&amp;"'"&amp;K34&amp;"'"&amp;"+"&amp;"'"&amp;K35&amp;"'"&amp;"+"&amp;"'"&amp;K36&amp;"'"&amp;"+"&amp;"'"&amp;K41&amp;"'"&amp;"+"&amp;"'"&amp;K42&amp;"'"&amp;"+"&amp;"'"&amp;K43&amp;"'"&amp;"+"&amp;"'"&amp;K44&amp;"'"&amp;"+"&amp;"'"&amp;K45&amp;"'"&amp;"+"&amp;"'"&amp;K46&amp;"'"&amp;"+"&amp;"'"&amp;K47&amp;"'"&amp;"+"&amp;"'"&amp;K48&amp;"'"&amp;"+"&amp;"'"&amp;K49&amp;"'"&amp;"+"&amp;"'"&amp;K50&amp;"'"&amp;"+"&amp;"'"&amp;K51&amp;"'"&amp;"+"&amp;"'"&amp;K52&amp;"'"&amp;"+"&amp;"'"&amp;K53&amp;"'"&amp;"+"&amp;"'"&amp;K54&amp;"'"&amp;"+"&amp;"'"&amp;K55&amp;"'"&amp;"+"&amp;"'"&amp;K56&amp;"'"&amp;"+"&amp;"'"&amp;K57&amp;"'"&amp;"+"&amp;"'"&amp;K58&amp;"'"&amp;"+"&amp;"'"&amp;K59&amp;"'"&amp;"+"&amp;"'"&amp;K60&amp;"'"&amp;"+"&amp;"'"&amp;K61&amp;"'"&amp;"+"&amp;"'"&amp;K62&amp;"'"&amp;"+"&amp;"'"&amp;K63&amp;"'"&amp;"+"&amp;"'"&amp;K64&amp;"'"&amp;"+"&amp;"'"&amp;K65&amp;"'"&amp;"+"&amp;"'"&amp;K66&amp;"'"&amp;"+"&amp;"'"&amp;K67&amp;"'"&amp;"+"&amp;"'"&amp;K68&amp;"'"&amp;"+"&amp;"'"&amp;K69&amp;"'"&amp;"+"&amp;"'"&amp;K70&amp;"'"&amp;"+"&amp;"'"&amp;K71&amp;"'"&amp;"+"&amp;"'"&amp;K72&amp;"'"&amp;"+"&amp;"'"&amp;K73&amp;"'"&amp;"+"&amp;"'"&amp;K74&amp;"'"</f>
-        <v>'RA-ToSIA01:RF-SSAmp-H05AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H05PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H05PreAmp:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H06PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H06PreAmp:Current2-Mon'</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="M67:M68"/>
     <mergeCell ref="M69:M70"/>
@@ -12733,21 +12728,25 @@
     <mergeCell ref="M47:M48"/>
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -12755,11 +12754,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="F66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12895,13 +12894,13 @@
         <f>IF(I3="-",E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;":"&amp;J3,E3&amp;"-"&amp;F3&amp;":"&amp;G3&amp;"-"&amp;H3&amp;"-"&amp;I3&amp;":"&amp;J3)</f>
         <v>RA-ToSIA01:RF-SSAmp-H07AM01:Current1-Mon</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="94">
         <v>1</v>
       </c>
     </row>
@@ -12940,11 +12939,11 @@
         <f t="shared" ref="K4:K67" si="0">IF(I4="-",E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;":"&amp;J4,E4&amp;"-"&amp;F4&amp;":"&amp;G4&amp;"-"&amp;H4&amp;"-"&amp;I4&amp;":"&amp;J4)</f>
         <v>RA-ToSIA01:RF-SSAmp-H07AM01:Current2-Mon</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="91"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="43">
@@ -12981,13 +12980,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM02:Current1-Mon</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="94">
         <v>2</v>
       </c>
     </row>
@@ -13026,11 +13025,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM02:Current2-Mon</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43">
@@ -13067,13 +13066,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM03:Current1-Mon</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="91">
+      <c r="N7" s="94">
         <v>3</v>
       </c>
     </row>
@@ -13112,11 +13111,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM03:Current2-Mon</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="91"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="43">
@@ -13153,13 +13152,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM04:Current1-Mon</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="91">
+      <c r="N9" s="94">
         <v>4</v>
       </c>
     </row>
@@ -13198,11 +13197,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM04:Current2-Mon</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="92"/>
-      <c r="N10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43">
@@ -13239,13 +13238,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM05:Current1-Mon</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="91">
+      <c r="N11" s="94">
         <v>5</v>
       </c>
     </row>
@@ -13284,11 +13283,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM05:Current2-Mon</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="91"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43">
@@ -13325,13 +13324,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM06:Current1-Mon</v>
       </c>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="M13" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="91">
+      <c r="N13" s="94">
         <v>6</v>
       </c>
     </row>
@@ -13370,11 +13369,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM06:Current2-Mon</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="43">
@@ -13411,13 +13410,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM07:Current1-Mon</v>
       </c>
-      <c r="L15" s="85" t="s">
+      <c r="L15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="94">
         <v>7</v>
       </c>
     </row>
@@ -13456,11 +13455,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM07:Current2-Mon</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="94"/>
-      <c r="N16" s="91"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="43">
@@ -13497,13 +13496,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM08:Current1-Mon</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="92" t="s">
+      <c r="M17" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="94">
         <v>8</v>
       </c>
     </row>
@@ -13542,11 +13541,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07AM08:Current2-Mon</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="92"/>
-      <c r="N18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="94"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="43">
@@ -13583,13 +13582,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM01:Current1-Mon</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="93" t="s">
+      <c r="M19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="94">
         <v>9</v>
       </c>
     </row>
@@ -13628,11 +13627,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM01:Current2-Mon</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="91"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="43">
@@ -13669,13 +13668,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM02:Current1-Mon</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="91">
+      <c r="N21" s="94">
         <v>10</v>
       </c>
     </row>
@@ -13714,11 +13713,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM02:Current2-Mon</v>
       </c>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="94"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43">
@@ -13755,13 +13754,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM03:Current1-Mon</v>
       </c>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="N23" s="91">
+      <c r="N23" s="94">
         <v>11</v>
       </c>
     </row>
@@ -13800,11 +13799,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM03:Current2-Mon</v>
       </c>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="91"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="94"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43">
@@ -13841,13 +13840,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM04:Current1-Mon</v>
       </c>
-      <c r="L25" s="85" t="s">
+      <c r="L25" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="92" t="s">
+      <c r="M25" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="91">
+      <c r="N25" s="94">
         <v>12</v>
       </c>
     </row>
@@ -13886,11 +13885,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM04:Current2-Mon</v>
       </c>
-      <c r="L26" s="86" t="s">
+      <c r="L26" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="94"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43">
@@ -13927,13 +13926,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM05:Current1-Mon</v>
       </c>
-      <c r="L27" s="85" t="s">
+      <c r="L27" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="93" t="s">
+      <c r="M27" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="91">
+      <c r="N27" s="94">
         <v>13</v>
       </c>
     </row>
@@ -13972,11 +13971,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM05:Current2-Mon</v>
       </c>
-      <c r="L28" s="86" t="s">
+      <c r="L28" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="91"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="94"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="43">
@@ -14013,13 +14012,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM06:Current1-Mon</v>
       </c>
-      <c r="L29" s="85" t="s">
+      <c r="L29" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="92" t="s">
+      <c r="M29" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="91">
+      <c r="N29" s="94">
         <v>14</v>
       </c>
     </row>
@@ -14058,11 +14057,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM06:Current2-Mon</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="94"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="43">
@@ -14099,13 +14098,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM07:Current1-Mon</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="93" t="s">
+      <c r="M31" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="91">
+      <c r="N31" s="94">
         <v>15</v>
       </c>
     </row>
@@ -14144,11 +14143,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM07:Current2-Mon</v>
       </c>
-      <c r="L32" s="86" t="s">
+      <c r="L32" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="91"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43">
@@ -14185,13 +14184,13 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM08:Current1-Mon</v>
       </c>
-      <c r="L33" s="85" t="s">
+      <c r="L33" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="92" t="s">
+      <c r="M33" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="91">
+      <c r="N33" s="94">
         <v>16</v>
       </c>
     </row>
@@ -14230,11 +14229,11 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07BM08:Current2-Mon</v>
       </c>
-      <c r="L34" s="86" t="s">
+      <c r="L34" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="94"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="43">
@@ -14271,10 +14270,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07PreAmp:Current1-Mon</v>
       </c>
-      <c r="L35" s="85" t="s">
+      <c r="L35" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="94" t="s">
+      <c r="M35" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14313,10 +14312,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H07PreAmp:Current2-Mon</v>
       </c>
-      <c r="L36" s="86" t="s">
+      <c r="L36" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="94"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43">
@@ -14353,7 +14352,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H07:PwrFwdTop-Mon</v>
       </c>
-      <c r="L37" s="85" t="s">
+      <c r="L37" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -14395,7 +14394,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H07:PwrRevTop-Mon</v>
       </c>
-      <c r="L38" s="86" t="s">
+      <c r="L38" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M38" s="25" t="s">
@@ -14437,7 +14436,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-HeatSink-H07:PwrFwdBot-Mon</v>
       </c>
-      <c r="L39" s="85" t="s">
+      <c r="L39" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -14521,10 +14520,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM01:Current1-Mon</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="93" t="s">
+      <c r="M41" s="92" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14563,10 +14562,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM01:Current2-Mon</v>
       </c>
-      <c r="L42" s="86" t="s">
+      <c r="L42" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="94"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="43">
@@ -14603,10 +14602,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM02:Current1-Mon</v>
       </c>
-      <c r="L43" s="85" t="s">
+      <c r="L43" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="92" t="s">
+      <c r="M43" s="91" t="s">
         <v>55</v>
       </c>
     </row>
@@ -14645,10 +14644,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM02:Current2-Mon</v>
       </c>
-      <c r="L44" s="86" t="s">
+      <c r="L44" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="92"/>
+      <c r="M44" s="91"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43">
@@ -14685,10 +14684,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM03:Current1-Mon</v>
       </c>
-      <c r="L45" s="85" t="s">
+      <c r="L45" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M45" s="93" t="s">
+      <c r="M45" s="92" t="s">
         <v>61</v>
       </c>
     </row>
@@ -14727,10 +14726,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM03:Current2-Mon</v>
       </c>
-      <c r="L46" s="86" t="s">
+      <c r="L46" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="94"/>
+      <c r="M46" s="93"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43">
@@ -14767,10 +14766,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM04:Current1-Mon</v>
       </c>
-      <c r="L47" s="85" t="s">
+      <c r="L47" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="92" t="s">
+      <c r="M47" s="91" t="s">
         <v>67</v>
       </c>
     </row>
@@ -14809,10 +14808,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM04:Current2-Mon</v>
       </c>
-      <c r="L48" s="86" t="s">
+      <c r="L48" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="M48" s="92"/>
+      <c r="M48" s="91"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="43">
@@ -14849,10 +14848,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM05:Current1-Mon</v>
       </c>
-      <c r="L49" s="85" t="s">
+      <c r="L49" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="93" t="s">
+      <c r="M49" s="92" t="s">
         <v>73</v>
       </c>
     </row>
@@ -14891,10 +14890,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM05:Current2-Mon</v>
       </c>
-      <c r="L50" s="86" t="s">
+      <c r="L50" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="94"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="43">
@@ -14931,10 +14930,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM06:Current1-Mon</v>
       </c>
-      <c r="L51" s="85" t="s">
+      <c r="L51" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="92" t="s">
+      <c r="M51" s="91" t="s">
         <v>77</v>
       </c>
     </row>
@@ -14973,10 +14972,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM06:Current2-Mon</v>
       </c>
-      <c r="L52" s="86" t="s">
+      <c r="L52" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="92"/>
+      <c r="M52" s="91"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="43">
@@ -15013,10 +15012,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM07:Current1-Mon</v>
       </c>
-      <c r="L53" s="85" t="s">
+      <c r="L53" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="M53" s="93" t="s">
+      <c r="M53" s="92" t="s">
         <v>81</v>
       </c>
     </row>
@@ -15055,10 +15054,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM07:Current2-Mon</v>
       </c>
-      <c r="L54" s="86" t="s">
+      <c r="L54" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="94"/>
+      <c r="M54" s="93"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="43">
@@ -15095,10 +15094,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM08:Current1-Mon</v>
       </c>
-      <c r="L55" s="85" t="s">
+      <c r="L55" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="92" t="s">
+      <c r="M55" s="91" t="s">
         <v>85</v>
       </c>
     </row>
@@ -15137,10 +15136,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08AM08:Current2-Mon</v>
       </c>
-      <c r="L56" s="86" t="s">
+      <c r="L56" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="92"/>
+      <c r="M56" s="91"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="43">
@@ -15177,10 +15176,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM01:Current1-Mon</v>
       </c>
-      <c r="L57" s="85" t="s">
+      <c r="L57" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="93" t="s">
+      <c r="M57" s="92" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15219,10 +15218,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM01:Current2-Mon</v>
       </c>
-      <c r="L58" s="86" t="s">
+      <c r="L58" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="94"/>
+      <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="43">
@@ -15259,10 +15258,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM02:Current1-Mon</v>
       </c>
-      <c r="L59" s="85" t="s">
+      <c r="L59" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="92" t="s">
+      <c r="M59" s="91" t="s">
         <v>93</v>
       </c>
     </row>
@@ -15301,10 +15300,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM02:Current2-Mon</v>
       </c>
-      <c r="L60" s="86" t="s">
+      <c r="L60" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="92"/>
+      <c r="M60" s="91"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="43">
@@ -15341,10 +15340,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM03:Current1-Mon</v>
       </c>
-      <c r="L61" s="85" t="s">
+      <c r="L61" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="93" t="s">
+      <c r="M61" s="92" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15383,10 +15382,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM03:Current2-Mon</v>
       </c>
-      <c r="L62" s="86" t="s">
+      <c r="L62" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="94"/>
+      <c r="M62" s="93"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="43">
@@ -15423,10 +15422,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM04:Current1-Mon</v>
       </c>
-      <c r="L63" s="85" t="s">
+      <c r="L63" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="92" t="s">
+      <c r="M63" s="91" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15465,10 +15464,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM04:Current2-Mon</v>
       </c>
-      <c r="L64" s="86" t="s">
+      <c r="L64" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="M64" s="92"/>
+      <c r="M64" s="91"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="43">
@@ -15505,10 +15504,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM05:Current1-Mon</v>
       </c>
-      <c r="L65" s="85" t="s">
+      <c r="L65" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="93" t="s">
+      <c r="M65" s="92" t="s">
         <v>105</v>
       </c>
     </row>
@@ -15547,10 +15546,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM05:Current2-Mon</v>
       </c>
-      <c r="L66" s="86" t="s">
+      <c r="L66" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="M66" s="94"/>
+      <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="43">
@@ -15587,10 +15586,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM06:Current1-Mon</v>
       </c>
-      <c r="L67" s="85" t="s">
+      <c r="L67" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="92" t="s">
+      <c r="M67" s="91" t="s">
         <v>109</v>
       </c>
     </row>
@@ -15629,10 +15628,10 @@
         <f t="shared" ref="K68:K82" si="1">IF(I68="-",E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;":"&amp;J68,E68&amp;"-"&amp;F68&amp;":"&amp;G68&amp;"-"&amp;H68&amp;"-"&amp;I68&amp;":"&amp;J68)</f>
         <v>RA-ToSIA01:RF-SSAmp-H08BM06:Current2-Mon</v>
       </c>
-      <c r="L68" s="86" t="s">
+      <c r="L68" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="92"/>
+      <c r="M68" s="91"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="43">
@@ -15669,10 +15668,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM07:Current1-Mon</v>
       </c>
-      <c r="L69" s="85" t="s">
+      <c r="L69" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="93" t="s">
+      <c r="M69" s="92" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15711,10 +15710,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM07:Current2-Mon</v>
       </c>
-      <c r="L70" s="86" t="s">
+      <c r="L70" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="94"/>
+      <c r="M70" s="93"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="43">
@@ -15751,10 +15750,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM08:Current1-Mon</v>
       </c>
-      <c r="L71" s="85" t="s">
+      <c r="L71" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="92" t="s">
+      <c r="M71" s="91" t="s">
         <v>117</v>
       </c>
     </row>
@@ -15793,10 +15792,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08BM08:Current2-Mon</v>
       </c>
-      <c r="L72" s="86" t="s">
+      <c r="L72" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="92"/>
+      <c r="M72" s="91"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="43">
@@ -15833,10 +15832,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08PreAmp:Current1-Mon</v>
       </c>
-      <c r="L73" s="85" t="s">
+      <c r="L73" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="94" t="s">
+      <c r="M73" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15875,10 +15874,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-SSAmp-H08PreAmp:Current2-Mon</v>
       </c>
-      <c r="L74" s="86" t="s">
+      <c r="L74" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="94"/>
+      <c r="M74" s="93"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="43">
@@ -15915,7 +15914,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H08:PwrFwdTop-Mon</v>
       </c>
-      <c r="L75" s="85" t="s">
+      <c r="L75" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M75" s="24" t="s">
@@ -15957,7 +15956,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H08:PwrRevTop-Mon</v>
       </c>
-      <c r="L76" s="86" t="s">
+      <c r="L76" s="85" t="s">
         <v>124</v>
       </c>
       <c r="M76" s="25" t="s">
@@ -15999,7 +15998,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToSIA01:RF-HeatSink-H08:PwrFwdBot-Mon</v>
       </c>
-      <c r="L77" s="85" t="s">
+      <c r="L77" s="87" t="s">
         <v>124</v>
       </c>
       <c r="M77" s="24" t="s">
@@ -16081,9 +16080,9 @@
       </c>
       <c r="K79" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut4-Mon</v>
-      </c>
-      <c r="L79" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn4-Mon</v>
+      </c>
+      <c r="L79" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="28" t="s">
@@ -16123,9 +16122,9 @@
       </c>
       <c r="K80" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut4-Mon</v>
-      </c>
-      <c r="L80" s="86" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn4-Mon</v>
+      </c>
+      <c r="L80" s="85" t="s">
         <v>150</v>
       </c>
       <c r="M80" s="26" t="s">
@@ -16165,9 +16164,9 @@
       </c>
       <c r="K81" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdIn4-Mon</v>
-      </c>
-      <c r="L81" s="85" t="s">
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrFwdOut4-Mon</v>
+      </c>
+      <c r="L81" s="87" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="24" t="s">
@@ -16207,7 +16206,7 @@
       </c>
       <c r="K82" s="79" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevIn4-Mon</v>
+        <v>RA-ToSIA01:RF-SSAmpTower:PwrRevOut4-Mon</v>
       </c>
       <c r="L82" s="31" t="s">
         <v>150</v>
@@ -16216,38 +16215,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="I85" s="29" t="str">
-        <f>"'"&amp;K3&amp;"'"&amp;"+"&amp;"'"&amp;K4&amp;"'"&amp;"+"&amp;"'"&amp;K5&amp;"'"&amp;"+"&amp;"'"&amp;K6&amp;"'"&amp;"+"&amp;"'"&amp;K7&amp;"'"&amp;"+"&amp;"'"&amp;K8&amp;"'"&amp;"+"&amp;"'"&amp;K9&amp;"'"&amp;"+"&amp;"'"&amp;K10&amp;"'"&amp;"+"&amp;"'"&amp;K11&amp;"'"&amp;"+"&amp;"'"&amp;K12&amp;"'"&amp;"+"&amp;"'"&amp;K13&amp;"'"&amp;"+"&amp;"'"&amp;K14&amp;"'"&amp;"+"&amp;"'"&amp;K15&amp;"'"&amp;"+"&amp;"'"&amp;K16&amp;"'"&amp;"+"&amp;"'"&amp;K17&amp;"'"&amp;"+"&amp;"'"&amp;K18&amp;"'"&amp;"+"&amp;"'"&amp;K19&amp;"'"&amp;"+"&amp;"'"&amp;K20&amp;"'"&amp;"+"&amp;"'"&amp;K21&amp;"'"&amp;"+"&amp;"'"&amp;K22&amp;"'"&amp;"+"&amp;"'"&amp;K23&amp;"'"&amp;"+"&amp;"'"&amp;K24&amp;"'"&amp;"+"&amp;"'"&amp;K25&amp;"'"&amp;"+"&amp;"'"&amp;K26&amp;"'"&amp;"+"&amp;"'"&amp;K27&amp;"'"&amp;"+"&amp;"'"&amp;K28&amp;"'"&amp;"+"&amp;"'"&amp;K29&amp;"'"&amp;"+"&amp;"'"&amp;K30&amp;"'"&amp;"+"&amp;"'"&amp;K31&amp;"'"&amp;"+"&amp;"'"&amp;K32&amp;"'"&amp;"+"&amp;"'"&amp;K33&amp;"'"&amp;"+"&amp;"'"&amp;K34&amp;"'"&amp;"+"&amp;"'"&amp;K35&amp;"'"&amp;"+"&amp;"'"&amp;K36&amp;"'"&amp;"+"&amp;"'"&amp;K41&amp;"'"&amp;"+"&amp;"'"&amp;K42&amp;"'"&amp;"+"&amp;"'"&amp;K43&amp;"'"&amp;"+"&amp;"'"&amp;K44&amp;"'"&amp;"+"&amp;"'"&amp;K45&amp;"'"&amp;"+"&amp;"'"&amp;K46&amp;"'"&amp;"+"&amp;"'"&amp;K47&amp;"'"&amp;"+"&amp;"'"&amp;K48&amp;"'"&amp;"+"&amp;"'"&amp;K49&amp;"'"&amp;"+"&amp;"'"&amp;K50&amp;"'"&amp;"+"&amp;"'"&amp;K51&amp;"'"&amp;"+"&amp;"'"&amp;K52&amp;"'"&amp;"+"&amp;"'"&amp;K53&amp;"'"&amp;"+"&amp;"'"&amp;K54&amp;"'"&amp;"+"&amp;"'"&amp;K55&amp;"'"&amp;"+"&amp;"'"&amp;K56&amp;"'"&amp;"+"&amp;"'"&amp;K57&amp;"'"&amp;"+"&amp;"'"&amp;K58&amp;"'"&amp;"+"&amp;"'"&amp;K59&amp;"'"&amp;"+"&amp;"'"&amp;K60&amp;"'"&amp;"+"&amp;"'"&amp;K61&amp;"'"&amp;"+"&amp;"'"&amp;K62&amp;"'"&amp;"+"&amp;"'"&amp;K63&amp;"'"&amp;"+"&amp;"'"&amp;K64&amp;"'"&amp;"+"&amp;"'"&amp;K65&amp;"'"&amp;"+"&amp;"'"&amp;K66&amp;"'"&amp;"+"&amp;"'"&amp;K67&amp;"'"&amp;"+"&amp;"'"&amp;K68&amp;"'"&amp;"+"&amp;"'"&amp;K69&amp;"'"&amp;"+"&amp;"'"&amp;K70&amp;"'"&amp;"+"&amp;"'"&amp;K71&amp;"'"&amp;"+"&amp;"'"&amp;K72&amp;"'"&amp;"+"&amp;"'"&amp;K73&amp;"'"&amp;"+"&amp;"'"&amp;K74&amp;"'"</f>
-        <v>'RA-ToSIA01:RF-SSAmp-H07AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H07PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H07PreAmp:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08AM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM01:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM01:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM02:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM02:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM03:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM03:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM04:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM04:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM05:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM05:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM06:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM06:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM07:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM07:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM08:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08BM08:Current2-Mon'+'RA-ToSIA01:RF-SSAmp-H08PreAmp:Current1-Mon'+'RA-ToSIA01:RF-SSAmp-H08PreAmp:Current2-Mon'</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
     <mergeCell ref="M67:M68"/>
     <mergeCell ref="M69:M70"/>
     <mergeCell ref="M71:M72"/>
@@ -16264,16 +16243,30 @@
     <mergeCell ref="M61:M62"/>
     <mergeCell ref="M63:M64"/>
     <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -16284,7 +16277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FB089F-4C19-45B5-B93B-0C6361FCC2FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -16299,8 +16294,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a6ff473c24fc44163490d905b4ab4ee2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="243435ed956ade279fa1d023abedd985" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="6123f169037dc6f483589061ee56df39">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e992ea9d1b273beddc4a4bbf9c63934d" ns2:_="" ns3:_="">
     <xsd:import namespace="40443515-7982-453e-8cc3-61a478897d4d"/>
     <xsd:import namespace="32dc2326-b69f-4ff3-bc41-ce299fdac243"/>
     <xsd:element name="properties">
@@ -16319,6 +16323,8 @@
                 <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16329,7 +16335,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="40443515-7982-453e-8cc3-61a478897d4d" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:description="" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -16348,11 +16354,9 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:description="" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -16374,19 +16378,17 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:hidden="true" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:hidden="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -16401,6 +16403,16 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:hidden="true" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -16411,8 +16423,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -16501,23 +16513,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82287DDB-7D8B-4CED-97E8-DB1C325264F3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC0431FD-1A75-4365-B279-AF94D061FE13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A831CC-A28E-4A0B-ABEF-49ABDC8742C7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A831CC-A28E-4A0B-ABEF-49ABDC8742C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44C5CB84-4F2E-4789-B0CF-28060FA5CA98}"/>
 </file>